--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC323"/>
+  <dimension ref="A1:AC324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AntiAge</t>
+          <t>Anti Age</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -602,7 +602,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Anti Age
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Anti Age Capsule Contains: Acetyl L-Carnitine Arginate Dihydrochloride 500 mg ( Equivalant to Acetyl L Carnitine 225 mg &amp; Arginine 193 mg )
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Anti Age Capsules: 40 Capsules</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -715,7 +721,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Baby Fort
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Baby Fort Oral vials: Vitamin C 45 mg, Vitamin E (as Alpha Tocoferil acetate) 7.5 mg, Vitamin B6 (as Pyridoxine HCl)1.5mg, Zinc 5 mg, Manganese 1.5 mg
+in the Solution: Taurine 100 mg
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Baby Fort Oral vials: 10 Oral Vials: each vial contains 10 ml.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -828,7 +841,13 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Energetic
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each film coated caplet Contains: Coenzyme Q10 3 mg, Biotin 0.15 mg, Folic acid 0.2 mg, Vitamin A 0.8 mg, Vit.B1 1.4 mg, Vit.B2 1.6 mg, Vit.B3 18 mg, Vit.B5 6 mg, Vit.B6 2 mg, Vit.B12 1 mcg, Vit.C 60 mg, Vit.D3 5 mcg, Vit.E 10 mg, Vit. K 25 mcg, Beta Carotene 1.5 mg, Potassium 40 mg, Magnesium 100 mg, Chromium 25 mcg, lodine 0.15 mg, Manganese 2.5 mg, Copper 2 mg, Molybdenum 25 mcg, Selenium 0.02 mg, Zinc 12 mg, Iron 10 mg
+Description:
+Dosage form: Film Coated Caplets
+Dosage strength:
+How is supplied: Energetic Film coated caplets: 30 caplets</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -941,7 +960,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Folevit
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Folevit oral vial contains in the red cap: Folic Acid 6 mg., Nicotinamide (Vit. PP) 24 mg., Thiamine Hydrochloride (Vit. B1) 12mg., Cyanocobalamin (Vit. B12) 6 mcg.
+Ingredients in the solution to dissolve the components of the redcap.
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Folevit: A box of 10 oral vials, each vial contains 10 ml.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1054,7 +1080,13 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glutaphos
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Glutamine 70 mg, DL- phosphoserine 40 mg, Vitamin B12 0.5 mg / 10 ml
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: 10 Oral Vials each of 10 ml per Package</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1167,7 +1199,13 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Grand Vita
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each 10 ml Grand Vita Syrup Contains: vitamin A (as retinyl acetate)700 mcg (2333IU), vitamin B1 (as thiamine hydrochloride) 800 mcg, vitamin B2(as riboflavin 5-phosphate sodium)900 mcg, vitamin B3 (as nicotinamide ) 10mg, vitamin B5 (as calcium D-pantothenate) 4 mg, vitamin B6 ( pyridoxine hydrochloride)500 mcg, vitamin B12 ( cyanocobalamin) 1.5 mcg, vitamin C (ascorbic acid) 70 mg, vitamin D3 (cholecalciferol)10 mcg(400 IU), vitamin E (as dl-alpha tocopheryl acetate ) 8 mg, vitamin H (biotin) 15 mcg, vitamin K1 ( phytonadione ) 20 mcg, Folic acid 300 mcg, Chromium (as chromic chloride) 80 mcg, Iodine ( as potassium iodide) 120 mcg, Iron ( as ferrous sulfate) 1.5 mg, Manganese (as manganese sulfate)1.5 mg, Molybdenum (as sodium molybdate)75 mcg, Seleinum ( as sodium selenite) 45 mcg, Zinc ( as zinc sulfate) 5 mg
+Description:
+Dosage form: Syrup
+Dosage strength:
+How is supplied: Grand Vita: 200 ml of syrup in glass bottle with a measuring cup</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1280,7 +1318,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Healthy Pregna
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Amount per Caplet: Vitamin C (Ascorbic Acid) 60 mg, Vitamin D (Cholecalciferol) 400 IU, Vitamin E ( as dl-Alpha-Tocopheryl Acetate) 30 IU, Vitamin B1 (as Thiamin Hydrochloride) 1.7 mg, Vitamin B2 ( as Riboflavin Sodium Phosphate) 2 mg, Vitamin B3 ( as Nicotinamide) 20 mg, Vitamin B5 ( as D-Calcium Pantothenate) 10 mg, Vitamin B6 ( Pyridoxine Hydrochloride) 2.5 mg, Vitamin B9 (Folic Acid) 800 mcg, Vitamin B12 (Cyanocobalamin) 8 mcg, Vitamin H (Biotin) 300 mcg, Calcium ( as Carbonate) 300 mg , Iron ( as Ferrous Fumarate) 28 mg, Iodine ( sa Potassium Iodide) 150 mcg, Magnesium (as Oxide)50 mg
+Zinc (as Oxide) 15 mg, Copper ( as Cupric Sulphate)2 mg
+Description:
+Dosage form: Film Coated Caplets
+Dosage strength:
+How is supplied: Healthy Pregna :60 film coated caplets</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1393,7 +1438,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Iron + Vitamins
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Iron + Vitamins Oral vials Contains: Vitamin C 60 mg, Vitamin B6 (as Pyridoxine HCl ) 2 mg, Vitamin B2 (as Riboflavin sodium phosphate) 1.6 mg, Vitamin B12 1 Mcg
+Folic Acid 200 Mcg
+In the solution: Iron (as Ferrous Gluconate) 10.5 mg
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: A box of 10 oral vials: each vial contains 10 ml</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1490,7 +1543,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Memory forte</t>
+          <t>Memory Forte</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1506,7 +1559,13 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Memory Forte
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Aceglutamide ( N-Acetyl-L-glutamine) 60 mg, L-asparagine 60 mg, D,L Phosphoserine 60 mg, Pyridoxine HCI 25 mg/Oral Vial in Solion
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: 10 Oral Vials each of 10 ml per Package</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1603,7 +1662,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Mg Ibn Al Haytham</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1619,7 +1678,13 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Mg Ibn Al Haytham
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each 10 ml oral vial Mg Ibn Al Haytham contains: Magnesium pidolate 1.5 g equivalent to 130 mg of magnesium ions (Mg2+).
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Mg Ibn Al Haytham Oral Vials: 10 oral vials: each vial contains 10 ml.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1732,7 +1797,13 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Mini Vita
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Mini Vita Chewable Tablet contains: Amount per 4 tablets: Vitamin A 200 Ug, Vitamin D3 2.5 Ug, Vitamin E 3.2 mg, Vitamin C 52.50 mg, Vitamin B1 0.35 mg, Vitamin B2 0.55 mg, Vitamin PP 5.55 mg, Vitamin B6 0.35 mg, Folic Acid 0.07 mg, Vitamin B12 0.5 ug, Biotin 0.07 mg, Pantothenic Acid 2.4 mg, Calcium 61.13 mg, Magnesium 20 mg, Potassium 5.62 mg, Chloride 5.10 mg, Iron 1.75 mg, Zinc 1.87 mg, Manganese 0.31 mg, Copper 0.15 mg, Fluoride 0.13 mg, Iodine 20 ug
+Description:
+Dosage form: Chewable Tablets
+Dosage strength:
+How is supplied: Mini Vita Chewable Tablets:50 Chewable Tablets</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1845,7 +1916,13 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Vit Selen
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each film coated caplet contains: Selenium 100 Mcg, Zinc 15 mg, Vitamin A 1000 Mcg, Vitamin B6 2.2 mg, Vitamin C 90 mg, Vitamin E 15 mg
+Description:
+Dosage form: Film Coated Caplets
+Dosage strength:
+How is supplied: Vit Selen: 30 Film Coated Caplets</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1958,7 +2035,13 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Acnetrix
+Therapeutic category: Anti Acne
+Active constituents: Each 100g of Acnetrix gel contains: Isotretinoin 0.05g, Erythromycin 2 g
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Acnetrix Gel: Tube of 30 g gel.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2055,7 +2138,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Metroxazide</t>
+          <t>Metroxazide Oral Suspension</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2071,7 +2154,13 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Metroxazide Oral Suspension
+Therapeutic category: Anti Diarrhea Drug
+Active constituents: Each 5 ml of Metroxazide Oral Suspension Contains:Metronidazole ( as benzoate) 250 mg + Nifuroxazide 200 mg
+Description:
+Dosage form: Suspension
+Dosage strength:
+How is supplied: Metroxazide Oral Suspension:100 ml bottle</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2168,7 +2257,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Opicadril</t>
+          <t>Opicadril 100 mg Capsules</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2184,7 +2273,13 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Opicadril 100 mg Capsules
+Therapeutic category: Anti Diarrhea Drug
+Active constituents: Each Opicadril 100 mg capsule contains: Racecadotril 100 mg.
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Opicadril 100 mg Capsules: 10 capsules</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2281,7 +2376,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Clarithromycin</t>
+          <t>Clarithromycin MR Ibn Al Haytham</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2297,7 +2392,13 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Clarithromycin MR Ibn Al Haytham
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Clarithromycin MR modified release tablet contains: Clarithromycin 500 mg.
+Description:
+Dosage form: Modified Release Coated Tablets
+Dosage strength:
+How is supplied: Clarithromycin MR Ibn Al Haytham Tablets: a pack of 7 modified release film coated tablets.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2394,7 +2495,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Floxalive</t>
+          <t>Floxalive 750 mg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2410,7 +2511,13 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Floxalive 750 mg
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Floxalive 750 mg film coated tablet contains: Levofloxacin 750 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 750 mg
+How is supplied: Floxalive 750 mg: 5 film coated tablets</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2523,7 +2630,13 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Moxicin
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each film coated tablet contains: Moxifloxacin HCl 436.8 mg equivalent to Moxifloxacin 400 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 400 mg
+How is supplied: Moxicin: A box of 5 film coated tablets</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2620,7 +2733,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Metro Vagyl</t>
+          <t>MetroVagyl</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2636,7 +2749,13 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>MetroVagyl
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each MetroVagyl Vaginal Ovules contains: miconazole Nitrate 150 mg, metronidazole 500 mg
+Description:
+Dosage form: Vaginal Ovules
+Dosage strength:
+How is supplied: MetroVagyl : 14 Vaginal Ovules in a carton box</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2733,7 +2852,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fenogesic</t>
+          <t>Fenogesic 600</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2749,7 +2868,13 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fenogesic 600
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Fenogesic 600 sachet contains: Ibuprofen 600 mg
+Description:
+Dosage form: Effervescent Granules
+Dosage strength:
+How is supplied: Fenogesic 600 Sachets: 10 Sachets containing effervescent granules for oral solution.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2846,7 +2971,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mefenamic</t>
+          <t>Mefenamic Ibn Al Haytham</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2862,7 +2987,13 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Mefenamic Ibn Al Haytham
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each 5 ml Mefenamic Ibn Al Haytham oral suspension contains: Mefenamic acid 50 mg
+Description:
+Dosage form: Oral Suspension
+Dosage strength:
+How is supplied: Mefenamic Ibn Al Haytham Oral Suspension: 100 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2959,7 +3090,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Paradol</t>
+          <t>Hazi Paradol</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2975,7 +3106,13 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Hazi Paradol
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Hazi Paradol tablet contains: Paracetamol 250 mg, Propyphenazone 150 mg, Caffeine 50 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Box of 20 tablets.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3088,7 +3225,13 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fast Action
+Therapeutic category: Antiallergics
+Active constituents: Each Fast Action tablet contains: Triprolidine Hydrochloride 2.5 mg, Pseudoephedrine Hydrochloride 60mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Fast Action: 20 Tablets</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3201,7 +3344,13 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Megragesic
+Therapeutic category: Antimigraine Drugs
+Active constituents: Each Megragesic film coated tablet contains: Almotriptan (as Malate) 12.5 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Megragesic Tablets:6 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3298,7 +3447,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Orlistat</t>
+          <t>Orlistat Ibn Al Haytham</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -3314,7 +3463,13 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Orlistat Ibn Al Haytham
+Therapeutic category: Antiobesity Drugs
+Active constituents: Each Orlistat capsule contains: Orlistat 120 mg.
+Description:
+Dosage form: Capsules
+Dosage strength: 120 mg
+How is supplied: Orlistat Ibn Al Haytham 120 mg :20 Capsules</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3411,7 +3566,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Calcium 200</t>
+          <t>Calcium 200 USP Ibn Al Haytham</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -3427,7 +3582,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Calcium 200 USP Ibn Al Haytham
+Therapeutic category: Antiosteoporotic Drugs
+Active constituents: Each tablet contains: Calcium Carbonate 500 mg (equivalent to 200 mg of elemental calcium)
+Description:
+Dosage form: Tablets
+Dosage strength: 200 mg
+How is supplied: Calcium 200 USP Ibn Al Haytham:
+50 Tablets</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3540,7 +3702,13 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Urispam
+Therapeutic category: Antispasmodics
+Active constituents: Each Urispam film-coated tablet contains: Propiverine HCl 15 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Urispam Tablets: 30 film coated tablets.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3637,7 +3805,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Indapamide SR</t>
+          <t>Indapamide SR Ibn Al Haytham</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -3653,7 +3821,13 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Indapamide SR Ibn Al Haytham
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each sustained-release film coated tablet contains: Indapamid 1.5 mg
+Description:
+Dosage form: Sustained-Release Film Coated Tablets
+Dosage strength:
+How is supplied: Indapamide SR Ibn Al Haytham: 30 sustained-release film coated tablets</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3766,7 +3940,13 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nifemex Retard
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Nifemex Retard extended-release tablet contains: Nifedipine 20 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Nifemex Retard E. R. Tablets: A box of 50 film-coated tablets</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3879,7 +4059,13 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dentalin Gel
+Therapeutic category: Dental and Topical Oral Preparations
+Active constituents: Each 1g Dentalin gel Contains: Amylocaine HCI 5 mg
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Dentalin Gel:A tube of 20 g</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3992,7 +4178,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Oralog
+Therapeutic category: Dental and Topical Oral Preparations
+Active constituents: Each 1g of Oralog oral paste contains: Triamcinolone Acetonide 1 mg.
+Description:
+Dosage form: Paste
+Dosage strength:
+How is supplied: Oralog oral paste:
+Tube of 15 g.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4089,7 +4282,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PonySyr</t>
+          <t>Ponysyr</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -4105,7 +4298,13 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ponysyr
+Therapeutic category: Dental and Topical Oral Preparations
+Active constituents: Calcium Sodium PVMMA Copolymer ,Cellulose Gum, Paraffin liquid, Petrolatum, Menthol, Menthyl lactate.
+Description:
+Dosage: form Gel
+Dosage strength:
+How is supplied: 40 g Gel</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4202,7 +4401,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Forderm cream</t>
+          <t>Forderm</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -4218,7 +4417,13 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Forderm
+Therapeutic category: Dermatological Drugs
+Active constituents: Each 1 g Forderm Cream Contains: Betamethasone (as 17-valerate) 0.5 mg, Gentamycin (as sulfate) 1 mg, Tolnaftate 10 mg, Clioquinol 10 mg
+Description:
+Dosage form: Cream
+Dosage strength:
+How is supplied: Forderm Cream :A tube of 30 g</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4315,7 +4520,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Newdex Cream</t>
+          <t>Newdex</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -4331,7 +4536,13 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Newdex
+Therapeutic category: Dermatological Drugs
+Active constituents: Each 1 g of Newdex Cream Contains: Dexamethasone Phosphate (as Dexamethasone Sodium Phosphate)100 mg, Neomycin (as Sulfate) 3.5 mg
+Description:
+Dosage form: Cream
+Dosage strength:
+How is supplied: Newdex Cream: A tube of 30 g Cream</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4428,7 +4639,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Polybiotic Oint</t>
+          <t>Polybiotic</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -4444,7 +4655,13 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Polybiotic
+Therapeutic category: Dermatological Drugs
+Active constituents: Each 1 g of Polybiotic Ointment contains: Neomycin Sulfate 5 mg., Bacitracin Zinc 500 IU, Polymyxin B (as Sulfate) 5000 IU.
+Description:
+Dosage form: Ointment
+Dosage strength:
+How is supplied: Polybiotic Ointment: Tube of 30 g ointment.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4557,7 +4774,13 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Scarderm
+Therapeutic category: Dermatological Drugs
+Active constituents: Each 1g SCARDERM Gel contains: Allantoin 10 mg, Onion Extract 100 mg, Heparin Sodium 50 IU
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: SCARDERM Gel: A tube of 30 g gel.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4654,7 +4877,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Argenor</t>
+          <t>Argenor Syrup</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -4670,7 +4893,13 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Argenor Syrup
+Therapeutic category: Food Supplement
+Active constituents: Each 5 ml Argenor Syrup contains: Arginine hydrochloride 1 g (Equivalent to 0.83 g of Arginine)
+Description:
+Dosage form: Syrup
+Dosage strength:
+How is supplied: Argenor: 200 ml Syrup with measuring cup</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4767,7 +4996,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Be Smart</t>
+          <t>Be Smart Oral Vials</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -4783,7 +5012,13 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Be Smart Oral Vials
+Therapeutic category: Food Supplement
+Active constituents: Each 10 ml Be Smart Oral Vials contains: Aceglutamide 60 mg, L-asparagine 60 mg, DL-phosphoserine 60 mg, Vitamin B6 ( pyridoxine hydrochloride) 25 mg
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Be Smart: 10 Oral Vials each vial contains 10 ml</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4896,7 +5131,13 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>BonaVit
+Therapeutic category: Food Supplement
+Active constituents: Each BonaVit Capsule Contains: Strontium (as citrate) 340 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: BonaVit:60 Capsules</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4993,7 +5234,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GreenTea Gum</t>
+          <t>Green Tea Gum</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -5009,7 +5250,13 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Green Tea Gum
+Therapeutic category: Food Supplement
+Active constituents: Each Green Tea Gum Piece Contains: Extract of Green Tea ( Camellia Sinensis) Leaves: 17.8 mg, Chromium Picolinate 169 mcg (21 mcg of chromium )
+Description:
+Dosage form: Chewing Gums
+Dosage strength:
+How is supplied: Green Tea Gum: 20 chewing gums</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5106,7 +5353,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gastrovit fawar</t>
+          <t>Gastrovit Fawar</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -5122,7 +5369,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Gastrovit Fawar
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Gastrovit Fawar sachet contains:
+Sodium Citrate 425 mg
+Potassium Citrate 50 mg
+Vitamin B1 (Thiamine HCl) 50 mg
+Vitamin B2 (Riboflavin sodium phosphate) 25 mg
+Vitamin B6 (Pyridoxine HCl) 12.5 mg
+Citric Acid 100 mg
+Description:
+Dosage form: Effervescent Granules
+Dosage strength:
+How is supplied: 10 Sachets containing effervescent granules for oral solution.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5219,7 +5478,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>L-Sulpiride 25</t>
+          <t>L-Sulpiride 25 Tablets</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -5235,7 +5494,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>L-Sulpiride 25 Tablets
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each L-Sulpiride 25 Tablet contains:
+Levosulpiride 25 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: A pack of 20 Tablets</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5348,7 +5614,13 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Iron-Folic-Zinc
+Therapeutic category: Iron Supplements
+Active constituents: Each sustained release capsule contains a mixture of pellets equivalent to: Dried ferrous sulfate 150 mg (contains about 47mg elemental iron) Folic Acid 500 mcg, Zinc Sulfate Monohydrate 61.8 mg
+Description:
+Dosage form: Sustained Release Capsules
+Dosage strength:
+How is supplied: Iron- Folic- Zinc Sustained Release Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5445,7 +5717,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Orphacet</t>
+          <t>Orphacet tablets</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -5461,7 +5733,13 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Orphacet tablets
+Therapeutic category: Muscle Relaxants
+Active constituents: Each Orphacet tablet contains: Orphenadrine citrate 35 mg, paracetamol 450 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Orphacet: 20 tablets</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5558,7 +5836,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tafirol flex</t>
+          <t>Tafirol Flex Capsules</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -5574,7 +5852,13 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Tafirol Flex Capsules
+Therapeutic category: Muscle Relaxants
+Active constituents: Each Tafirol Flex Capsule contains: chlorzoxazone 250 mg, paracetamol 300 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Tafirol Flex : 20 Capsules</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5687,7 +5971,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Otocain
+Therapeutic category: Otic Drugs
+Active constituents: Each 100 ml Otocain otic drops contains: Phenazone 2.5g
+Procaine HCl 2.88g
+Description:
+Dosage form: Ear drops
+Dosage strength:
+How is supplied: Otocain Otic Drops 10 ml</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5784,7 +6075,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tamsulosin</t>
+          <t>Therapeutic category: prostate diseases</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -5800,7 +6091,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Therapeutic category: prostate diseases
+Active constituents: Each Tamsulosin Ibn Al Haytham capsule contains: Tamsulosin Hydrochloride 0.4 mg (as Modified release pellets).
+Description:
+Dosage form: Modified Release Capsules
+Dosage strength:
+How is supplied: Tamsulosin Ibn Al Haytham :30 modified release capsules</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5913,7 +6209,13 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Azmixinal
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each 5 ml Azmixinal Syrup Contains: Terbutaline sulphate 1.25mg, Bromhexine HCI 4mg, Guaifenesin 50 mg, Menthol 2.5 mg
+Description:
+Dosage form: Syrup
+Dosage strength:
+How is supplied: Azmixinal Syrup :125 ml with a measuring cup</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -6010,7 +6312,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brodimexine syrup</t>
+          <t>Brodimexine</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -6026,7 +6328,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Brodimexine
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each 5 ml syrup contains: Bromhexine HCl 4mg, Dextromethorphan HBr 5mg, Pseudoephedrine HCl 30mg, Ammonium Chloride 50mg
+Menthol 2.5 mg
+Description:
+Dosage form: Syrup
+Dosage strength:
+How is supplied: Brodimexine : A glass bottle of 125 ml Syrup with a measuring cup</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6139,7 +6448,13 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Broncholysine
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each 100 ml Broncholysine syrup contains: Carbocisteine Lysine Monohydrate 9 g
+Description:
+Dosage form: Syrup
+Dosage strength:
+How is supplied: Broncholysine syrup: A glass bottle of 100 ml;with a measuring cup.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -6236,7 +6551,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>formovent</t>
+          <t>Formovent</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -6252,7 +6567,13 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Formovent
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Formovent capsule for oral inhalation contains: Formoterol Fumarate dihydrate 12 mcg
+Description:
+Dosage form: Capsules For Oral Inhalation Only
+Dosage strength:
+How is supplied: Formovent oral inhalation capsules: 60 capsules with an inhaler device.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -6363,11 +6684,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -6478,7 +6795,13 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Arginine Ibn Al Haytham Oral vial
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each 20 ml Arginine Oral vial Contains: Arginine Hydrochloride 2 g (Equivalent to 1.66g of Arginine)
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Arginine Ibn Al Haytham Oral vials: 10 Oral Vials, each containing 20 ml</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6593,7 +6916,13 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Arginine Ibn Al Haytham Oral vial
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each 20 ml Arginine Oral vial Contains: Arginine Hydrochloride 2 g (Equivalent to 1.66g of Arginine)
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Arginine Ibn Al Haytham Oral vials: 10 Oral Vials, each containing 20 ml</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6708,7 +7037,13 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Arginine Ibn Al Haytham Oral vial
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each 20 ml Arginine Oral vial Contains: Arginine Hydrochloride 2 g (Equivalent to 1.66g of Arginine)
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Arginine Ibn Al Haytham Oral vials: 10 Oral Vials, each containing 20 ml</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6823,7 +7158,13 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Arginine Ibn Al Haytham Oral vial
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each 20 ml Arginine Oral vial Contains: Arginine Hydrochloride 2 g (Equivalent to 1.66g of Arginine)
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Arginine Ibn Al Haytham Oral vials: 10 Oral Vials, each containing 20 ml</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -6936,11 +7277,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -7051,7 +7388,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Vita Biotin
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Vita Biotin oral vial contains: –In the red cap: Cyanocobalamine (Vit. B12) 1 mg, Calcium Folinate 0.5 mg
+-In the solution: Nicotinamide (Vit.PP) 10 mg, Thiamine Hydrochloride (Vit.B1)5mg, Riboflavin Sodium Phosphate(Vit.B2)6.1mg
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Vita Biotin: A box of 10 Oral Vials: each vial contains 6 ml</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7166,7 +7510,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Vita Biotin
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Vita Biotin oral vial contains: –In the red cap: Cyanocobalamine (Vit. B12) 1 mg, Calcium Folinate 0.5 mg
+-In the solution: Nicotinamide (Vit.PP) 10 mg, Thiamine Hydrochloride (Vit.B1)5mg, Riboflavin Sodium Phosphate(Vit.B2)6.1mg
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Vita Biotin: A box of 10 Oral Vials: each vial contains 6 ml</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7281,7 +7632,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Vita Biotin
+Therapeutic category: Amino Acids, Vitamins and Minerals
+Active constituents: Each Vita Biotin oral vial contains: –In the red cap: Cyanocobalamine (Vit. B12) 1 mg, Calcium Folinate 0.5 mg
+-In the solution: Nicotinamide (Vit.PP) 10 mg, Thiamine Hydrochloride (Vit.B1)5mg, Riboflavin Sodium Phosphate(Vit.B2)6.1mg
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Vita Biotin: A box of 10 Oral Vials: each vial contains 6 ml</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7394,11 +7752,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -7509,7 +7863,13 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Acnecid 10% Gel
+Therapeutic category: Anti Acne
+Active constituents: Each 100 gram of Acnecid gel contains: 10 g benzoyl peroxide
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Acnecid gel 10%: Tube of 30 g gel</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7624,7 +7984,13 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Acnecid 10% Gel
+Therapeutic category: Anti Acne
+Active constituents: Each 100 gram of Acnecid gel contains: 10 g benzoyl peroxide
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Acnecid gel 10%: Tube of 30 g gel</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7739,7 +8105,13 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Acnecid 10% Gel
+Therapeutic category: Anti Acne
+Active constituents: Each 100 gram of Acnecid gel contains: 10 g benzoyl peroxide
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Acnecid gel 10%: Tube of 30 g gel</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7854,7 +8226,13 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Acnecid 10% Gel
+Therapeutic category: Anti Acne
+Active constituents: Each 100 gram of Acnecid gel contains: 10 g benzoyl peroxide
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Acnecid gel 10%: Tube of 30 g gel</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7967,11 +8345,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -8082,7 +8456,13 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Diopiravin 75/100
+Therapeutic category: Anti Platelets Aggregation Drugs
+Active constituents: Each Diopiravin 75/100 Film Coated Tablet Contains: Clopidogrel (as hydrogen sulfate) 75mg, Aspirin 100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 75/100
+How is supplied: Diopiravin 75/100: 30 film coated tablets</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8197,7 +8577,13 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Diopiravin 75/100
+Therapeutic category: Anti Platelets Aggregation Drugs
+Active constituents: Each Diopiravin 75/100 Film Coated Tablet Contains: Clopidogrel (as hydrogen sulfate) 75mg, Aspirin 100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 75/100
+How is supplied: Diopiravin 75/100: 30 film coated tablets</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8310,11 +8696,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -8425,7 +8807,13 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Prassuclear 10
+Therapeutic category: Anti Platelets Aggregation Drugs
+Active constituents: Each Prassuclear 10 film coated tablet contains: Prasugrel (as HCl) 10 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 10 mg
+How is supplied: Prassuclear 10: 28 film coated tablets.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8540,7 +8928,13 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Prassuclear 10
+Therapeutic category: Anti Platelets Aggregation Drugs
+Active constituents: Each Prassuclear 10 film coated tablet contains: Prasugrel (as HCl) 10 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 10 mg
+How is supplied: Prassuclear 10: 28 film coated tablets.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -8653,11 +9047,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -8768,7 +9158,13 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Azithromycin Ibn Al Haytham 250 mg
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Azithromycin Ibn Al Haytham 250 film coated tablet contains: Azithromycin ( as dihydrate ) 250 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 250 mg
+How is supplied: Azithromycin Ibn Al Haytham 250 film coated tablets:pack of 6 tablets</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8883,7 +9279,13 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Azithromycin Ibn Al Haytham 250 mg
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Azithromycin Ibn Al Haytham 250 film coated tablet contains: Azithromycin ( as dihydrate ) 250 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 250 mg
+How is supplied: Azithromycin Ibn Al Haytham 250 film coated tablets:pack of 6 tablets</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8998,7 +9400,13 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Azithromycin Ibn Al Haytham 250 mg
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Azithromycin Ibn Al Haytham 250 film coated tablet contains: Azithromycin ( as dihydrate ) 250 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 250 mg
+How is supplied: Azithromycin Ibn Al Haytham 250 film coated tablets:pack of 6 tablets</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -9111,11 +9519,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -9226,7 +9630,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ciprofloxacin 250 Ibn Al Haytham
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Ciprofloxacin 250 film coated tablet contains:
+Ciprofloxacin (as HCl) 250 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 250 mg
+How is supplied: Ciprofloxacin 250 Film Coated Tablets: 10 Tablets.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -9341,7 +9752,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ciprofloxacin 250 Ibn Al Haytham
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Ciprofloxacin 250 film coated tablet contains:
+Ciprofloxacin (as HCl) 250 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 250 mg
+How is supplied: Ciprofloxacin 250 Film Coated Tablets: 10 Tablets.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -9456,7 +9874,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ciprofloxacin 250 Ibn Al Haytham
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Ciprofloxacin 250 film coated tablet contains:
+Ciprofloxacin (as HCl) 250 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 250 mg
+How is supplied: Ciprofloxacin 250 Film Coated Tablets: 10 Tablets.</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -9569,11 +9994,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -9684,7 +10105,13 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fosfomycin Adults Ibn Al Haytham
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Fosfomycin Adults Ibn Al Haytham sachet contains: Fosfomycin (as Fosfomycin trometamol)3g
+Description:
+Dosage form: Sachets
+Dosage strength:
+How is supplied: Fosfomycin Adults Ibn Al Haytham: 1 sachets</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9799,7 +10226,13 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fosfomycin Adults Ibn Al Haytham
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Fosfomycin Adults Ibn Al Haytham sachet contains: Fosfomycin (as Fosfomycin trometamol)3g
+Description:
+Dosage form: Sachets
+Dosage strength:
+How is supplied: Fosfomycin Adults Ibn Al Haytham: 1 sachets</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9912,11 +10345,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -10027,7 +10456,13 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Xifarym 200 mg
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Xifarym 200 mg film coated tablet contains: Rifaximin 200 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 200 mg
+How is supplied: Xifarym 200 mg film coated tablets:9 tablets</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -10142,7 +10577,13 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Xifarym 200 mg
+Therapeutic category: Anti-infective Drugs – Antibacterial / Antiviral
+Active constituents: Each Xifarym 200 mg film coated tablet contains: Rifaximin 200 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 200 mg
+How is supplied: Xifarym 200 mg film coated tablets:9 tablets</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -10255,11 +10696,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -10370,7 +10807,13 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lactisyr Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Lactisyr Vaginal Solution has a Lactic Acid Base
+Description:
+Dosage form: Vaginal Solution
+Dosage strength:
+How is supplied: Lactisyr Vaginal Solution:300 ml</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -10485,7 +10928,13 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lactisyr Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Lactisyr Vaginal Solution has a Lactic Acid Base
+Description:
+Dosage form: Vaginal Solution
+Dosage strength:
+How is supplied: Lactisyr Vaginal Solution:300 ml</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -10598,11 +11047,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -10713,7 +11158,13 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Micostop 0.2 % Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each 100 g Micostop 0.2 % Vaginal Solution contain: 200 mg Tioconazole
+Description:
+Dosage form: Solution
+Dosage strength:
+How is supplied: Micostop 0.2 % Vaginal Solution: Bottle containing 150 ml Solution with applicator.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10828,7 +11279,13 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Micostop 0.2 % Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each 100 g Micostop 0.2 % Vaginal Solution contain: 200 mg Tioconazole
+Description:
+Dosage form: Solution
+Dosage strength:
+How is supplied: Micostop 0.2 % Vaginal Solution: Bottle containing 150 ml Solution with applicator.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -10943,7 +11400,13 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Micostop 0.2 % Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each 100 g Micostop 0.2 % Vaginal Solution contain: 200 mg Tioconazole
+Description:
+Dosage form: Solution
+Dosage strength:
+How is supplied: Micostop 0.2 % Vaginal Solution: Bottle containing 150 ml Solution with applicator.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -11058,7 +11521,13 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Micostop 0.2 % Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each 100 g Micostop 0.2 % Vaginal Solution contain: 200 mg Tioconazole
+Description:
+Dosage form: Solution
+Dosage strength:
+How is supplied: Micostop 0.2 % Vaginal Solution: Bottle containing 150 ml Solution with applicator.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -11173,7 +11642,13 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Micostop 0.2 % Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each 100 g Micostop 0.2 % Vaginal Solution contain: 200 mg Tioconazole
+Description:
+Dosage form: Solution
+Dosage strength:
+How is supplied: Micostop 0.2 % Vaginal Solution: Bottle containing 150 ml Solution with applicator.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -11288,7 +11763,13 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Micostop 0.2 % Vaginal Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Each 100 g Micostop 0.2 % Vaginal Solution contain: 200 mg Tioconazole
+Description:
+Dosage form: Solution
+Dosage strength:
+How is supplied: Micostop 0.2 % Vaginal Solution: Bottle containing 150 ml Solution with applicator.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -11401,11 +11882,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -11516,7 +11993,14 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Naftine Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Naftine external solution: Each 1g solution contains: Naftifine HCl 10
+mg.
+Description:
+Dosage form: External Solution
+Dosage strength:
+How is supplied: Naftine External Solution : 30 ml solution.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -11631,7 +12115,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Naftine Solution
+Therapeutic category: Anti-infective Drugs – Antifungal
+Active constituents: Naftine external solution: Each 1g solution contains: Naftifine HCl 10
+mg.
+Description:
+Dosage form: External Solution
+Dosage strength:
+How is supplied: Naftine External Solution : 30 ml solution.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -11744,11 +12235,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -11859,7 +12346,13 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Artrofen Oral Gargle
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each 100 ml Artrofen oral solution contains: Ketoprofen Lysine 1.6 g.
+Description:
+Dosage form: Oral Gargle
+Dosage strength:
+How is supplied: Artrofen oral gargle: a bottle of 125 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -11974,7 +12467,13 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Artrofen Oral Gargle
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each 100 ml Artrofen oral solution contains: Ketoprofen Lysine 1.6 g.
+Description:
+Dosage form: Oral Gargle
+Dosage strength:
+How is supplied: Artrofen oral gargle: a bottle of 125 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -12089,7 +12588,13 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Artrofen Oral Gargle
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each 100 ml Artrofen oral solution contains: Ketoprofen Lysine 1.6 g.
+Description:
+Dosage form: Oral Gargle
+Dosage strength:
+How is supplied: Artrofen oral gargle: a bottle of 125 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -12204,7 +12709,13 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Artrofen Oral Gargle
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each 100 ml Artrofen oral solution contains: Ketoprofen Lysine 1.6 g.
+Description:
+Dosage form: Oral Gargle
+Dosage strength:
+How is supplied: Artrofen oral gargle: a bottle of 125 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -12317,11 +12828,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -12432,7 +12939,13 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Coxibet 120 mg
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Coxibet 120 mg film coated tablet contains: Etoricoxib 120
+Description:
+Dosage form: film coated tablet
+Dosage strength: 120 mg
+How is supplied: Coxibet 120 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -12547,7 +13060,13 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Coxibet 120 mg
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Coxibet 120 mg film coated tablet contains: Etoricoxib 120
+Description:
+Dosage form: film coated tablet
+Dosage strength: 120 mg
+How is supplied: Coxibet 120 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -12662,7 +13181,13 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Coxibet 120 mg
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Coxibet 120 mg film coated tablet contains: Etoricoxib 120
+Description:
+Dosage form: film coated tablet
+Dosage strength: 120 mg
+How is supplied: Coxibet 120 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -12777,7 +13302,13 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Coxibet 120 mg
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Coxibet 120 mg film coated tablet contains: Etoricoxib 120
+Description:
+Dosage form: film coated tablet
+Dosage strength: 120 mg
+How is supplied: Coxibet 120 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -12890,11 +13421,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -13005,7 +13532,13 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lornomax 4
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Lornomax 4 film coated tablet contains: lornoxicam 4 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 4 mg
+How is supplied: Lornomax 4: 20 film coated tablets.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -13120,7 +13653,13 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lornomax 4
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Lornomax 4 film coated tablet contains: lornoxicam 4 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 4 mg
+How is supplied: Lornomax 4: 20 film coated tablets.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -13233,11 +13772,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -13348,7 +13883,13 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nimesulide Ibn Al Haytham Suppositories
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Nimesulide Suppository contains: Nimesulide 200 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Nimesulide Suppositories :a box of 10 suppositories</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -13463,7 +14004,13 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nimesulide Ibn Al Haytham Suppositories
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Nimesulide Suppository contains: Nimesulide 200 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Nimesulide Suppositories :a box of 10 suppositories</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -13578,7 +14125,13 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nimesulide Ibn Al Haytham Suppositories
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Nimesulide Suppository contains: Nimesulide 200 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Nimesulide Suppositories :a box of 10 suppositories</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -13693,7 +14246,13 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nimesulide Ibn Al Haytham Suppositories
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Nimesulide Suppository contains: Nimesulide 200 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Nimesulide Suppositories :a box of 10 suppositories</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -13806,11 +14365,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -13921,7 +14476,13 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Oxydol 2.5 / 325 Tablets
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Oxydol 2.5/325 tablet contains: Oxycodone HCl 2.5 mg and Paracetamol 325 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Oxydol 2.5/325 Tablets: 20 tablets.</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -14036,7 +14597,13 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Oxydol 2.5 / 325 Tablets
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Oxydol 2.5/325 tablet contains: Oxycodone HCl 2.5 mg and Paracetamol 325 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Oxydol 2.5/325 Tablets: 20 tablets.</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -14151,7 +14718,13 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Oxydol 2.5 / 325 Tablets
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Oxydol 2.5/325 tablet contains: Oxycodone HCl 2.5 mg and Paracetamol 325 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Oxydol 2.5/325 Tablets: 20 tablets.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -14266,7 +14839,13 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Oxydol 2.5 / 325 Tablets
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Oxydol 2.5/325 tablet contains: Oxycodone HCl 2.5 mg and Paracetamol 325 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Oxydol 2.5/325 Tablets: 20 tablets.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -14379,11 +14958,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -14494,7 +15069,13 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Voltastar-K – 20 Film Coated Tablets
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Voltastar-K – 20 Film Coated Tablet contains: diclofenac potassium 50 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Voltastar-K – 20 Film Coated Tablet: 20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -14609,7 +15190,13 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Voltastar-K – 20 Film Coated Tablets
+Therapeutic category: Anti-inflammatory Drugs / Analgesics / Antipyretic
+Active constituents: Each Voltastar-K – 20 Film Coated Tablet contains: diclofenac potassium 50 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: Voltastar-K – 20 Film Coated Tablet: 20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -14722,11 +15309,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -14837,7 +15420,13 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fexofenadine 60 Ibn Al Haytham Capsules
+Therapeutic category: Antiallergics
+Active constituents: Each Fexofenadine 60 Capsules Contains: Fexofenadine HCl 60 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 60 mg
+How is supplied: Fexofenadine 60 Capsules: A box of 20 capsules</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -14952,7 +15541,13 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fexofenadine 60 Ibn Al Haytham Capsules
+Therapeutic category: Antiallergics
+Active constituents: Each Fexofenadine 60 Capsules Contains: Fexofenadine HCl 60 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 60 mg
+How is supplied: Fexofenadine 60 Capsules: A box of 20 capsules</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -15067,7 +15662,13 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fexofenadine 60 Ibn Al Haytham Capsules
+Therapeutic category: Antiallergics
+Active constituents: Each Fexofenadine 60 Capsules Contains: Fexofenadine HCl 60 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 60 mg
+How is supplied: Fexofenadine 60 Capsules: A box of 20 capsules</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -15180,11 +15781,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -15295,7 +15892,13 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Levo Histamine Oral Solution
+Therapeutic category: Antiallergics
+Active constituents: Each 1 ml Levo Histamine oral solution contains: Levocetirizine Dihydrochloride 0.5 mg.
+Description:
+Dosage form: Oral Solution
+Dosage strength:
+How is supplied: Levo Histamine Oral Solution: A bottle of 125 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -15410,7 +16013,13 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Levo Histamine Oral Solution
+Therapeutic category: Antiallergics
+Active constituents: Each 1 ml Levo Histamine oral solution contains: Levocetirizine Dihydrochloride 0.5 mg.
+Description:
+Dosage form: Oral Solution
+Dosage strength:
+How is supplied: Levo Histamine Oral Solution: A bottle of 125 ml with a measuring cup.</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -15523,11 +16132,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -15638,7 +16243,13 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Anxitin 10 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Anxitin 10 mg film-coated tablet contains: Escitalopram (as Oxalate)10mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 10 mg
+How is supplied: Anxitin 10 mg Tablets: 20 film coated tablets</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -15753,7 +16364,13 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Anxitin 10 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Anxitin 10 mg film-coated tablet contains: Escitalopram (as Oxalate)10mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 10 mg
+How is supplied: Anxitin 10 mg Tablets: 20 film coated tablets</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -15868,7 +16485,13 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Anxitin 10 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Anxitin 10 mg film-coated tablet contains: Escitalopram (as Oxalate)10mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 10 mg
+How is supplied: Anxitin 10 mg Tablets: 20 film coated tablets</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -15981,11 +16604,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -16096,7 +16715,13 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Depretin 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Depretin 20 mg film coated tablet contains: Paroxetine HCl USP equivalent to paroxetine 20 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Depretin 20 mg coated tablets is available in pack of 20 tablets.</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -16211,7 +16836,13 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Depretin 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Depretin 20 mg film coated tablet contains: Paroxetine HCl USP equivalent to paroxetine 20 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Depretin 20 mg coated tablets is available in pack of 20 tablets.</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -16326,7 +16957,13 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Depretin 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Depretin 20 mg film coated tablet contains: Paroxetine HCl USP equivalent to paroxetine 20 mg.
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Depretin 20 mg coated tablets is available in pack of 20 tablets.</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -16439,11 +17076,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -16554,7 +17187,14 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmonex 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Duloxetine 20 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 20 mg
+How is supplied: 30 Delayed Release Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -16669,7 +17309,14 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmonex 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Duloxetine 20 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 20 mg
+How is supplied: 30 Delayed Release Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -16784,7 +17431,14 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmonex 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Duloxetine 20 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 20 mg
+How is supplied: 30 Delayed Release Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -16899,7 +17553,14 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmonex 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Duloxetine 20 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 20 mg
+How is supplied: 30 Delayed Release Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -17012,11 +17673,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -17127,7 +17784,13 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmostar 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Harmostar 20 mg capsules contains: Enteric-coated pellets of 20 mg Duloxetine (as hydrochloride)
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: Harmostar 20 mg:30 Delayed-release capsules</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -17242,7 +17905,13 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmostar 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Harmostar 20 mg capsules contains: Enteric-coated pellets of 20 mg Duloxetine (as hydrochloride)
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: Harmostar 20 mg:30 Delayed-release capsules</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -17357,7 +18026,13 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmostar 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Harmostar 20 mg capsules contains: Enteric-coated pellets of 20 mg Duloxetine (as hydrochloride)
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: Harmostar 20 mg:30 Delayed-release capsules</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -17472,7 +18147,13 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Harmostar 20 mg
+Therapeutic category: Antidepressants
+Active constituents: Each Harmostar 20 mg capsules contains: Enteric-coated pellets of 20 mg Duloxetine (as hydrochloride)
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: Harmostar 20 mg:30 Delayed-release capsules</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -17585,11 +18266,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -17700,7 +18377,13 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Mirtapin 15
+Therapeutic category: Antidepressants
+Active constituents: Each Mirtapin 15 film coated tablet contains: Mirtazapine 15 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 15 mg
+How is supplied: Mirtapin 15 Tablets:20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -17815,7 +18498,13 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Mirtapin 15
+Therapeutic category: Antidepressants
+Active constituents: Each Mirtapin 15 film coated tablet contains: Mirtazapine 15 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 15 mg
+How is supplied: Mirtapin 15 Tablets:20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -17928,11 +18617,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -18043,7 +18728,13 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Actaglim 30/2
+Therapeutic category: Antidiabetics
+Active constituents: Each Actaglim 30/2 tablet contains: Pioglitazone ( as HCI ) 30 mg and Glimepiride 2 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 30 mg/2 mg
+How is supplied: Actaglim 30/2 tablets: 30 tablets</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -18158,7 +18849,13 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Actaglim 30/2
+Therapeutic category: Antidiabetics
+Active constituents: Each Actaglim 30/2 tablet contains: Pioglitazone ( as HCI ) 30 mg and Glimepiride 2 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 30 mg/2 mg
+How is supplied: Actaglim 30/2 tablets: 30 tablets</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -18273,7 +18970,13 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Actaglim 30/2
+Therapeutic category: Antidiabetics
+Active constituents: Each Actaglim 30/2 tablet contains: Pioglitazone ( as HCI ) 30 mg and Glimepiride 2 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 30 mg/2 mg
+How is supplied: Actaglim 30/2 tablets: 30 tablets</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -18386,11 +19089,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -18501,7 +19200,13 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Diabeset 120
+Therapeutic category: Antidiabetics
+Active constituents: Nateglinide 120 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: 50 Film Coated Tablets per Package</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -18616,7 +19321,13 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Diabeset 120
+Therapeutic category: Antidiabetics
+Active constituents: Nateglinide 120 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: 50 Film Coated Tablets per Package</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -18729,11 +19440,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -18844,7 +19551,13 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sitacretin 100 mg
+Therapeutic category: Antidiabetics
+Active constituents: Each Sitacretin 100 mg film coated tablet contains: Sitagliptin(as phosphate)100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 100 mg
+How is supplied: Sitacretin 100 mg: 7 film coated tablets</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -18959,7 +19672,13 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sitacretin 100 mg
+Therapeutic category: Antidiabetics
+Active constituents: Each Sitacretin 100 mg film coated tablet contains: Sitagliptin(as phosphate)100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 100 mg
+How is supplied: Sitacretin 100 mg: 7 film coated tablets</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -19074,7 +19793,13 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sitacretin 100 mg
+Therapeutic category: Antidiabetics
+Active constituents: Each Sitacretin 100 mg film coated tablet contains: Sitagliptin(as phosphate)100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 100 mg
+How is supplied: Sitacretin 100 mg: 7 film coated tablets</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -19187,11 +19912,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -19302,7 +20023,13 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sitacretin Plus 50 /1000
+Therapeutic category: Antidiabetics
+Active constituents: Each Sitacretin Plus 50 /1000 film coated tablet contains: Sitagliptin (as phosphate) 50 mg &amp; Metformin HCl 1000 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 50/1000 mg
+How is supplied: Sitacretin Plus 50/1000: 14 film coated tablets</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -19417,7 +20144,13 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sitacretin Plus 50 /1000
+Therapeutic category: Antidiabetics
+Active constituents: Each Sitacretin Plus 50 /1000 film coated tablet contains: Sitagliptin (as phosphate) 50 mg &amp; Metformin HCl 1000 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 50/1000 mg
+How is supplied: Sitacretin Plus 50/1000: 14 film coated tablets</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -19532,7 +20265,13 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sitacretin Plus 50 /1000
+Therapeutic category: Antidiabetics
+Active constituents: Each Sitacretin Plus 50 /1000 film coated tablet contains: Sitagliptin (as phosphate) 50 mg &amp; Metformin HCl 1000 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 50/1000 mg
+How is supplied: Sitacretin Plus 50/1000: 14 film coated tablets</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -19645,11 +20384,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -19760,7 +20495,13 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lamic 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Lamic 100 mg tablet contains: Lamotrigine 100 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 100 mg
+How is supplied: Lamic 100 mg tablets:20 tablets</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -19875,7 +20616,13 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lamic 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Lamic 100 mg tablet contains: Lamotrigine 100 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 100 mg
+How is supplied: Lamic 100 mg tablets:20 tablets</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -19990,7 +20737,13 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lamic 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Lamic 100 mg tablet contains: Lamotrigine 100 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 100 mg
+How is supplied: Lamic 100 mg tablets:20 tablets</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -20105,7 +20858,13 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Lamic 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Lamic 100 mg tablet contains: Lamotrigine 100 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 100 mg
+How is supplied: Lamic 100 mg tablets:20 tablets</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -20218,11 +20977,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -20333,7 +21088,13 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Levramax 1000 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Levramax 1000 mg film coated tablet contains: Levetiracetam 1000 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 1000 mg
+How is supplied: Levramax 1000 mg film coated tablets:10 tablets</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -20448,7 +21209,13 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Levramax 1000 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Levramax 1000 mg film coated tablet contains: Levetiracetam 1000 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 1000 mg
+How is supplied: Levramax 1000 mg film coated tablets:10 tablets</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -20563,7 +21330,13 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Levramax 1000 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Levramax 1000 mg film coated tablet contains: Levetiracetam 1000 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 1000 mg
+How is supplied: Levramax 1000 mg film coated tablets:10 tablets</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -20678,7 +21451,13 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Levramax 1000 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each Levramax 1000 mg film coated tablet contains: Levetiracetam 1000 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 1000 mg
+How is supplied: Levramax 1000 mg film coated tablets:10 tablets</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -20791,11 +21570,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -20906,7 +21681,13 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -21021,7 +21802,13 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -21136,7 +21923,13 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -21251,7 +22044,13 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -21366,7 +22165,13 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -21481,7 +22286,13 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -21596,7 +22407,13 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -21711,7 +22528,13 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ProQitara 100 mg
+Therapeutic category: Antiepileptics
+Active constituents: Each ProQitara 100 mg capsule contains: Pregabalin 100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 100 mg
+How is supplied: ProQitara 100 mg Capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -21824,11 +22647,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -21939,7 +22758,9 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valproate Ibn Al Haytham Oral Solution
+Therapeutic category: Antiepileptics
+Active constituents: Each 1 ml Valproate Ibn Al Haytham Oral Solution Contains: Sodium Valproate 200 mg</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -22054,7 +22875,9 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valproate Ibn Al Haytham Oral Solution
+Therapeutic category: Antiepileptics
+Active constituents: Each 1 ml Valproate Ibn Al Haytham Oral Solution Contains: Sodium Valproate 200 mg</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -22169,7 +22992,9 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valproate Ibn Al Haytham Oral Solution
+Therapeutic category: Antiepileptics
+Active constituents: Each 1 ml Valproate Ibn Al Haytham Oral Solution Contains: Sodium Valproate 200 mg</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -22282,11 +23107,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -22397,7 +23218,13 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Indomigrain Forte Suppositories
+Therapeutic category: Antimigraine Drugs
+Active constituents: Each Indomigraine Forte suppository contains: Indomethacin 50 mg, Caffeine 150 mg, Prochlorperazine Dimaleate 8 mg.
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Indomigraine Forte suppositories: A box of 6 suppositories</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -22512,7 +23339,13 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Indomigrain Forte Suppositories
+Therapeutic category: Antimigraine Drugs
+Active constituents: Each Indomigraine Forte suppository contains: Indomethacin 50 mg, Caffeine 150 mg, Prochlorperazine Dimaleate 8 mg.
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Indomigraine Forte suppositories: A box of 6 suppositories</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -22627,7 +23460,13 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Indomigrain Forte Suppositories
+Therapeutic category: Antimigraine Drugs
+Active constituents: Each Indomigraine Forte suppository contains: Indomethacin 50 mg, Caffeine 150 mg, Prochlorperazine Dimaleate 8 mg.
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Indomigraine Forte suppositories: A box of 6 suppositories</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -22740,11 +23579,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -22855,7 +23690,14 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Hazi CaViD Forte Sachets
+Therapeutic category: Antiosteoporotic Drugs
+Active constituents: Each Hazi CaViD Forte sachet contains: Calcium Carbonate 2500 mg = 1000 mg Calcium, Vitamin D3 (Colecalciferol) 22 mcg = 880 I.U.
+Description:
+Dosage form: Effervescent Granules
+Dosage strength:
+How is supplied: Hazi CaViD Forte Sachets: 20 Sachets containing effervescent granules for
+oral solution</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -22970,7 +23812,14 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Hazi CaViD Forte Sachets
+Therapeutic category: Antiosteoporotic Drugs
+Active constituents: Each Hazi CaViD Forte sachet contains: Calcium Carbonate 2500 mg = 1000 mg Calcium, Vitamin D3 (Colecalciferol) 22 mcg = 880 I.U.
+Description:
+Dosage form: Effervescent Granules
+Dosage strength:
+How is supplied: Hazi CaViD Forte Sachets: 20 Sachets containing effervescent granules for
+oral solution</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -23083,11 +23932,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -23198,7 +24043,13 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Spasticol 100
+Therapeutic category: Antispasmodics
+Active constituents: Each Spasticol 100 Film Coated Tablet contains: Pinaverium Bromide 100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 100 mg
+How is supplied: Spasticol 100: 10 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -23313,7 +24164,13 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Spasticol 100
+Therapeutic category: Antispasmodics
+Active constituents: Each Spasticol 100 Film Coated Tablet contains: Pinaverium Bromide 100 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 100 mg
+How is supplied: Spasticol 100: 10 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -23426,11 +24283,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -23541,7 +24394,14 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Alitensin 150 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Aliskiren (as hemifumarate) 150 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: 7- 14 -28 film coated tablets per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -23656,7 +24516,14 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Alitensin 150 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Aliskiren (as hemifumarate) 150 mg
+Description:
+Dosage form: Tablets
+Dosage strength:
+How is supplied: 7- 14 -28 film coated tablets per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -23769,11 +24636,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -23884,7 +24747,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Anti-Angina 1000 mg e.r. film coated tablet contains: Ranolazine 1000 mg
+Description:
+Dosage form: Extended Release, Film Coated Tablets
+Dosage strength: 1000 mg
+How is supplied: Anti-Angina 1000 mg: 30 extended release film coated tablets.</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -23999,7 +24867,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Anti-Angina 1000 mg e.r. film coated tablet contains: Ranolazine 1000 mg
+Description:
+Dosage form: Extended Release, Film Coated Tablets
+Dosage strength: 1000 mg
+How is supplied: Anti-Angina 1000 mg: 30 extended release film coated tablets.</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -24114,7 +24987,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Anti-Angina 1000 mg e.r. film coated tablet contains: Ranolazine 1000 mg
+Description:
+Dosage form: Extended Release, Film Coated Tablets
+Dosage strength: 1000 mg
+How is supplied: Anti-Angina 1000 mg: 30 extended release film coated tablets.</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -24229,7 +25107,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Anti-Angina 1000 mg e.r. film coated tablet contains: Ranolazine 1000 mg
+Description:
+Dosage form: Extended Release, Film Coated Tablets
+Dosage strength: 1000 mg
+How is supplied: Anti-Angina 1000 mg: 30 extended release film coated tablets.</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -24342,11 +25225,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -24457,7 +25336,13 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Beta Active 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Beta Active 10 mg tablet contains: Nebivolol (as hydrochloride) 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Beta Active 10 mg: 10 Tablets</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -24572,7 +25457,13 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Beta Active 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Beta Active 10 mg tablet contains: Nebivolol (as hydrochloride) 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Beta Active 10 mg: 10 Tablets</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -24687,7 +25578,13 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Beta Active 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Beta Active 10 mg tablet contains: Nebivolol (as hydrochloride) 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Beta Active 10 mg: 10 Tablets</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -24802,7 +25699,13 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Beta Active 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Beta Active 10 mg tablet contains: Nebivolol (as hydrochloride) 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Beta Active 10 mg: 10 Tablets</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -24917,7 +25820,13 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Beta Active 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Beta Active 10 mg tablet contains: Nebivolol (as hydrochloride) 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Beta Active 10 mg: 10 Tablets</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -25032,7 +25941,13 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Beta Active 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Beta Active 10 mg tablet contains: Nebivolol (as hydrochloride) 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Beta Active 10 mg: 10 Tablets</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -25145,11 +26060,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -25260,7 +26171,13 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Bisoprol 2.5 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each film coated tablet Bisoprol 2.5 mg contains: Bisoprolol Fumarate 2.5 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 2.5 mg
+How is supplied: Bisoprol 2.5 mg :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -25375,7 +26292,13 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Bisoprol 2.5 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each film coated tablet Bisoprol 2.5 mg contains: Bisoprolol Fumarate 2.5 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 2.5 mg
+How is supplied: Bisoprol 2.5 mg :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -25490,7 +26413,13 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Bisoprol 2.5 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each film coated tablet Bisoprol 2.5 mg contains: Bisoprolol Fumarate 2.5 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 2.5 mg
+How is supplied: Bisoprol 2.5 mg :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -25605,7 +26534,13 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Bisoprol 2.5 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each film coated tablet Bisoprol 2.5 mg contains: Bisoprolol Fumarate 2.5 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 2.5 mg
+How is supplied: Bisoprol 2.5 mg :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -25718,11 +26653,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -25833,7 +26764,13 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Bradicore 5 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Bradicore 5 mg film coated tablet contains: Ivabradine 5 mg (equivalent to 5.39 mg of Ivabradine Hydrochloride).
+Description:
+Dosage form: film coated tablet
+Dosage strength: 5 mg
+How is supplied: Bradicore 5 mg film coated tablets: 28 tablets.</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -25948,7 +26885,13 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Bradicore 5 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Bradicore 5 mg film coated tablet contains: Ivabradine 5 mg (equivalent to 5.39 mg of Ivabradine Hydrochloride).
+Description:
+Dosage form: film coated tablet
+Dosage strength: 5 mg
+How is supplied: Bradicore 5 mg film coated tablets: 28 tablets.</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -26061,11 +27004,7 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>taxable</t>
@@ -26176,7 +27115,13 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -26291,7 +27236,13 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -26406,7 +27357,13 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -26521,7 +27478,13 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -26636,7 +27599,13 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -26751,7 +27720,13 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -26845,12 +27820,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Valsartan</t>
+          <t>Ramipril</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -26866,7 +27841,13 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ramipril Ibn Al Haytham 10 mg
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Ramipril Ibn Al Haytham 10 mg tablet contains: Ramipril 10 mg
+Description:
+Dosage form: Tablets
+Dosage strength: 10 mg
+How is supplied: Ramipril Ibn Al Haytham 10 mg Tablets:30 Tablets</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -26874,7 +27855,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J232" t="n">
         <v>1</v>
       </c>
@@ -26905,9 +27890,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>3224</v>
+      </c>
       <c r="S232" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T232" t="inlineStr">
         <is>
@@ -26919,9 +27906,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V232" t="n">
-        <v>1</v>
-      </c>
+      <c r="V232" t="inlineStr"/>
       <c r="W232" t="n">
         <v>1</v>
       </c>
@@ -26940,9 +27925,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA232" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA232" t="inlineStr"/>
       <c r="AB232" t="n">
         <v>1</v>
       </c>
@@ -26958,7 +27941,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26977,21 +27960,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>1</v>
       </c>
@@ -27022,11 +27997,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R233" t="n">
-        <v>3231</v>
-      </c>
+      <c r="R233" t="inlineStr"/>
       <c r="S233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T233" t="inlineStr">
         <is>
@@ -27038,7 +28011,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V233" t="inlineStr"/>
+      <c r="V233" t="n">
+        <v>1</v>
+      </c>
       <c r="W233" t="n">
         <v>1</v>
       </c>
@@ -27057,7 +28032,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA233" t="inlineStr"/>
+      <c r="AA233" t="n">
+        <v>1</v>
+      </c>
       <c r="AB233" t="n">
         <v>1</v>
       </c>
@@ -27094,7 +28071,13 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -27138,10 +28121,10 @@
         </is>
       </c>
       <c r="R234" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T234" t="inlineStr">
         <is>
@@ -27209,7 +28192,13 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -27253,10 +28242,10 @@
         </is>
       </c>
       <c r="R235" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -27324,7 +28313,13 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -27368,10 +28363,10 @@
         </is>
       </c>
       <c r="R236" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T236" t="inlineStr">
         <is>
@@ -27439,7 +28434,13 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -27483,10 +28484,10 @@
         </is>
       </c>
       <c r="R237" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S237" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -27554,7 +28555,13 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -27598,10 +28605,10 @@
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S238" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -27669,7 +28676,13 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -27713,10 +28726,10 @@
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S239" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T239" t="inlineStr">
         <is>
@@ -27784,7 +28797,13 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -27828,10 +28847,10 @@
         </is>
       </c>
       <c r="R240" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S240" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T240" t="inlineStr">
         <is>
@@ -27899,7 +28918,13 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -27943,10 +28968,10 @@
         </is>
       </c>
       <c r="R241" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -28014,7 +29039,13 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -28058,10 +29089,10 @@
         </is>
       </c>
       <c r="R242" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S242" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -28129,7 +29160,13 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -28173,10 +29210,10 @@
         </is>
       </c>
       <c r="R243" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -28244,7 +29281,13 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -28288,10 +29331,10 @@
         </is>
       </c>
       <c r="R244" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S244" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -28359,7 +29402,13 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -28403,10 +29452,10 @@
         </is>
       </c>
       <c r="R245" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S245" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -28474,7 +29523,13 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -28518,10 +29573,10 @@
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S246" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -28589,7 +29644,13 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -28633,10 +29694,10 @@
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S247" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T247" t="inlineStr">
         <is>
@@ -28704,7 +29765,13 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -28748,10 +29815,10 @@
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S248" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T248" t="inlineStr">
         <is>
@@ -28819,7 +29886,13 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -28863,10 +29936,10 @@
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S249" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -28934,7 +30007,13 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -28978,10 +30057,10 @@
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S250" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T250" t="inlineStr">
         <is>
@@ -29049,7 +30128,13 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -29093,10 +30178,10 @@
         </is>
       </c>
       <c r="R251" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="S251" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -29143,12 +30228,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Atorvastatin</t>
+          <t>Valsartan</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -29164,7 +30249,13 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Valsartan 160 Ibn Al Haytham Tablets
+Therapeutic category: Cardiovascular Drugs
+Active constituents: Each Valsartan 160 Ibn Al Haytham film coated Tablet contains: Valsartan 160 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 160 mg
+How is supplied: Valsartan 160 Ibn Al Haytham film coated Tablets: Pack of 28 tablets</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -29172,7 +30263,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J252" t="n">
         <v>1</v>
       </c>
@@ -29190,7 +30285,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Cholesterol Reducers - Hypolipidemic Drugs</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Cardiovascular Drugs</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
@@ -29203,9 +30298,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>3232</v>
+      </c>
       <c r="S252" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T252" t="inlineStr">
         <is>
@@ -29217,9 +30314,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V252" t="n">
-        <v>1</v>
-      </c>
+      <c r="V252" t="inlineStr"/>
       <c r="W252" t="n">
         <v>1</v>
       </c>
@@ -29238,9 +30333,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA252" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA252" t="inlineStr"/>
       <c r="AB252" t="n">
         <v>1</v>
       </c>
@@ -29256,7 +30349,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29275,21 +30368,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
         <v>1</v>
       </c>
@@ -29320,11 +30405,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R253" t="n">
-        <v>3251</v>
-      </c>
+      <c r="R253" t="inlineStr"/>
       <c r="S253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -29336,7 +30419,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V253" t="inlineStr"/>
+      <c r="V253" t="n">
+        <v>1</v>
+      </c>
       <c r="W253" t="n">
         <v>1</v>
       </c>
@@ -29355,7 +30440,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA253" t="inlineStr"/>
+      <c r="AA253" t="n">
+        <v>1</v>
+      </c>
       <c r="AB253" t="n">
         <v>1</v>
       </c>
@@ -29392,7 +30479,13 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Atorvastatin Ibn Al Haytham 20 mg
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents: Each Atorvastatin Ibn Al Haytham 20 mg film coated tablet contains: Atorvastatin (as Calcium) 20 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Atorvastatin Ibn Al Haytham 20 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -29436,10 +30529,10 @@
         </is>
       </c>
       <c r="R254" t="n">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="S254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -29507,7 +30600,13 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Atorvastatin Ibn Al Haytham 20 mg
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents: Each Atorvastatin Ibn Al Haytham 20 mg film coated tablet contains: Atorvastatin (as Calcium) 20 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Atorvastatin Ibn Al Haytham 20 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -29551,10 +30650,10 @@
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="S255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -29622,7 +30721,13 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Atorvastatin Ibn Al Haytham 20 mg
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents: Each Atorvastatin Ibn Al Haytham 20 mg film coated tablet contains: Atorvastatin (as Calcium) 20 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Atorvastatin Ibn Al Haytham 20 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -29666,10 +30771,10 @@
         </is>
       </c>
       <c r="R256" t="n">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="S256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -29716,12 +30821,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MicroFibrate</t>
+          <t>Atorvastatin</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -29737,7 +30842,13 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Atorvastatin Ibn Al Haytham 20 mg
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents: Each Atorvastatin Ibn Al Haytham 20 mg film coated tablet contains: Atorvastatin (as Calcium) 20 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Atorvastatin Ibn Al Haytham 20 mg: 10 film coated tablets</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -29745,7 +30856,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J257" t="n">
         <v>1</v>
       </c>
@@ -29776,9 +30891,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>3252</v>
+      </c>
       <c r="S257" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -29790,9 +30907,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V257" t="n">
-        <v>1</v>
-      </c>
+      <c r="V257" t="inlineStr"/>
       <c r="W257" t="n">
         <v>1</v>
       </c>
@@ -29811,9 +30926,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA257" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA257" t="inlineStr"/>
       <c r="AB257" t="n">
         <v>1</v>
       </c>
@@ -29829,7 +30942,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29848,21 +30961,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>1</v>
       </c>
@@ -29893,11 +30998,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R258" t="n">
-        <v>3256</v>
-      </c>
+      <c r="R258" t="inlineStr"/>
       <c r="S258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -29909,7 +31012,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V258" t="inlineStr"/>
+      <c r="V258" t="n">
+        <v>1</v>
+      </c>
       <c r="W258" t="n">
         <v>1</v>
       </c>
@@ -29928,7 +31033,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA258" t="inlineStr"/>
+      <c r="AA258" t="n">
+        <v>1</v>
+      </c>
       <c r="AB258" t="n">
         <v>1</v>
       </c>
@@ -29965,7 +31072,13 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>MicroFibrate 67 mg
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents: Each MicroFibrate 67 mg capsules contains: Fenofibrate micronised 67 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 67 mg
+How is supplied: MicroFibrate 67 mg: 30 Capsules</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -30009,10 +31122,10 @@
         </is>
       </c>
       <c r="R259" t="n">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="S259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T259" t="inlineStr">
         <is>
@@ -30059,12 +31172,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Rosacrest</t>
+          <t>MicroFibrate</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -30080,7 +31193,13 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>MicroFibrate 67 mg
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents: Each MicroFibrate 67 mg capsules contains: Fenofibrate micronised 67 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 67 mg
+How is supplied: MicroFibrate 67 mg: 30 Capsules</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -30088,7 +31207,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J260" t="n">
         <v>1</v>
       </c>
@@ -30119,9 +31242,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>3257</v>
+      </c>
       <c r="S260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T260" t="inlineStr">
         <is>
@@ -30133,9 +31258,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V260" t="n">
-        <v>1</v>
-      </c>
+      <c r="V260" t="inlineStr"/>
       <c r="W260" t="n">
         <v>1</v>
       </c>
@@ -30154,9 +31277,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA260" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA260" t="inlineStr"/>
       <c r="AB260" t="n">
         <v>1</v>
       </c>
@@ -30172,7 +31293,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30191,21 +31312,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
         <v>1</v>
       </c>
@@ -30236,11 +31349,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R261" t="n">
-        <v>3259</v>
-      </c>
+      <c r="R261" t="inlineStr"/>
       <c r="S261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T261" t="inlineStr">
         <is>
@@ -30252,7 +31363,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V261" t="inlineStr"/>
+      <c r="V261" t="n">
+        <v>1</v>
+      </c>
       <c r="W261" t="n">
         <v>1</v>
       </c>
@@ -30271,7 +31384,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA261" t="inlineStr"/>
+      <c r="AA261" t="n">
+        <v>1</v>
+      </c>
       <c r="AB261" t="n">
         <v>1</v>
       </c>
@@ -30308,7 +31423,13 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Rosacrest 20
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents:	Each Rosacrest 20 film coated tablet contains: Rosuvastatin(as calcium) 20 mg
+Description:	
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Rosacrest 20 :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -30352,10 +31473,10 @@
         </is>
       </c>
       <c r="R262" t="n">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="S262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T262" t="inlineStr">
         <is>
@@ -30423,7 +31544,13 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Rosacrest 20
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents:	Each Rosacrest 20 film coated tablet contains: Rosuvastatin(as calcium) 20 mg
+Description:	
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Rosacrest 20 :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -30467,10 +31594,10 @@
         </is>
       </c>
       <c r="R263" t="n">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="S263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T263" t="inlineStr">
         <is>
@@ -30517,12 +31644,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Dapoxetine</t>
+          <t>Rosacrest</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -30538,7 +31665,13 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Rosacrest 20
+Therapeutic category: Cholesterol Reducers / Hypolipidemic Drugs
+Active constituents:	Each Rosacrest 20 film coated tablet contains: Rosuvastatin(as calcium) 20 mg
+Description:	
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Rosacrest 20 :30 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -30546,7 +31679,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J264" t="n">
         <v>1</v>
       </c>
@@ -30564,7 +31701,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Erectile Dysfunction Therapy</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Cholesterol Reducers - Hypolipidemic Drugs</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
@@ -30577,9 +31714,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>3260</v>
+      </c>
       <c r="S264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T264" t="inlineStr">
         <is>
@@ -30591,9 +31730,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V264" t="n">
-        <v>1</v>
-      </c>
+      <c r="V264" t="inlineStr"/>
       <c r="W264" t="n">
         <v>1</v>
       </c>
@@ -30612,9 +31749,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA264" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA264" t="inlineStr"/>
       <c r="AB264" t="n">
         <v>1</v>
       </c>
@@ -30630,7 +31765,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30649,21 +31784,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>1</v>
       </c>
@@ -30694,11 +31821,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R265" t="n">
-        <v>3263</v>
-      </c>
+      <c r="R265" t="inlineStr"/>
       <c r="S265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -30710,7 +31835,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V265" t="inlineStr"/>
+      <c r="V265" t="n">
+        <v>1</v>
+      </c>
       <c r="W265" t="n">
         <v>1</v>
       </c>
@@ -30729,7 +31856,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA265" t="inlineStr"/>
+      <c r="AA265" t="n">
+        <v>1</v>
+      </c>
       <c r="AB265" t="n">
         <v>1</v>
       </c>
@@ -30766,7 +31895,13 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dapoxetine Ibn AlHaytham 60mg
+Therapeutic category: Erectile Dysfunction Therapy
+Active constituents: Each Dapoxetine Ibn AlHaytham film coated tablet contains: Dapoxetine (as hydrochloride) 60 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Dapoxetine Ibn AlHaytham 60 mg : 4 film coated tablets</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -30810,10 +31945,10 @@
         </is>
       </c>
       <c r="R266" t="n">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="S266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T266" t="inlineStr">
         <is>
@@ -30860,12 +31995,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Tadafort</t>
+          <t>Dapoxetine</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -30881,7 +32016,13 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dapoxetine Ibn AlHaytham 60mg
+Therapeutic category: Erectile Dysfunction Therapy
+Active constituents: Each Dapoxetine Ibn AlHaytham film coated tablet contains: Dapoxetine (as hydrochloride) 60 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Dapoxetine Ibn AlHaytham 60 mg : 4 film coated tablets</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -30889,7 +32030,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J267" t="n">
         <v>1</v>
       </c>
@@ -30920,9 +32065,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>3264</v>
+      </c>
       <c r="S267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T267" t="inlineStr">
         <is>
@@ -30934,9 +32081,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V267" t="n">
-        <v>1</v>
-      </c>
+      <c r="V267" t="inlineStr"/>
       <c r="W267" t="n">
         <v>1</v>
       </c>
@@ -30955,9 +32100,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA267" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA267" t="inlineStr"/>
       <c r="AB267" t="n">
         <v>1</v>
       </c>
@@ -30973,7 +32116,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -30992,21 +32135,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>1</v>
       </c>
@@ -31037,11 +32172,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R268" t="n">
-        <v>3266</v>
-      </c>
+      <c r="R268" t="inlineStr"/>
       <c r="S268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T268" t="inlineStr">
         <is>
@@ -31053,7 +32186,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V268" t="inlineStr"/>
+      <c r="V268" t="n">
+        <v>1</v>
+      </c>
       <c r="W268" t="n">
         <v>1</v>
       </c>
@@ -31072,7 +32207,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA268" t="inlineStr"/>
+      <c r="AA268" t="n">
+        <v>1</v>
+      </c>
       <c r="AB268" t="n">
         <v>1</v>
       </c>
@@ -31109,7 +32246,13 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Tadafort 20 mg
+Therapeutic category: Erectile Dysfunction Therapy
+Active constituents: Each Tadafort 20 mg film coated tablet contains: 20 mg Tadalafil
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Tadafort 20: A pack contains 4 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -31153,10 +32296,10 @@
         </is>
       </c>
       <c r="R269" t="n">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="S269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T269" t="inlineStr">
         <is>
@@ -31203,12 +32346,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Glucosamine</t>
+          <t>Tadafort</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -31224,7 +32367,13 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Tadafort 20 mg
+Therapeutic category: Erectile Dysfunction Therapy
+Active constituents: Each Tadafort 20 mg film coated tablet contains: 20 mg Tadalafil
+Description:
+Dosage form: film coated tablet
+Dosage strength: 20 mg
+How is supplied: Tadafort 20: A pack contains 4 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -31232,7 +32381,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J270" t="n">
         <v>1</v>
       </c>
@@ -31250,7 +32403,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Food Supplement</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Erectile Dysfunction Therapy</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
@@ -31263,9 +32416,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>3267</v>
+      </c>
       <c r="S270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T270" t="inlineStr">
         <is>
@@ -31277,9 +32432,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V270" t="n">
-        <v>1</v>
-      </c>
+      <c r="V270" t="inlineStr"/>
       <c r="W270" t="n">
         <v>1</v>
       </c>
@@ -31298,9 +32451,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA270" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA270" t="inlineStr"/>
       <c r="AB270" t="n">
         <v>1</v>
       </c>
@@ -31316,7 +32467,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31335,21 +32486,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>1</v>
       </c>
@@ -31380,11 +32523,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R271" t="n">
-        <v>3269</v>
-      </c>
+      <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T271" t="inlineStr">
         <is>
@@ -31396,7 +32537,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V271" t="inlineStr"/>
+      <c r="V271" t="n">
+        <v>1</v>
+      </c>
       <c r="W271" t="n">
         <v>1</v>
       </c>
@@ -31415,7 +32558,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA271" t="inlineStr"/>
+      <c r="AA271" t="n">
+        <v>1</v>
+      </c>
       <c r="AB271" t="n">
         <v>1</v>
       </c>
@@ -31452,7 +32597,13 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -31496,10 +32647,10 @@
         </is>
       </c>
       <c r="R272" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T272" t="inlineStr">
         <is>
@@ -31567,7 +32718,13 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -31611,10 +32768,10 @@
         </is>
       </c>
       <c r="R273" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T273" t="inlineStr">
         <is>
@@ -31682,7 +32839,13 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -31726,10 +32889,10 @@
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T274" t="inlineStr">
         <is>
@@ -31797,7 +32960,13 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -31841,10 +33010,10 @@
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S275" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -31912,7 +33081,13 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -31956,10 +33131,10 @@
         </is>
       </c>
       <c r="R276" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S276" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T276" t="inlineStr">
         <is>
@@ -32027,7 +33202,13 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -32071,10 +33252,10 @@
         </is>
       </c>
       <c r="R277" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S277" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T277" t="inlineStr">
         <is>
@@ -32142,7 +33323,13 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -32186,10 +33373,10 @@
         </is>
       </c>
       <c r="R278" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="S278" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T278" t="inlineStr">
         <is>
@@ -32236,12 +33423,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Vitaglobin</t>
+          <t>Glucosamine</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -32257,7 +33444,13 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucosamine Collagen Ibn Al Haytham
+Therapeutic category: Food Supplement
+Active constituents: Each Glucosamine Collagen Ibn Al Haytham Capsule contains: Glucosamine sulfate (as potassium chloride) 500 mg, hydrolyzed collagen 200 mg
+Description:
+Dosage form: Capsules
+Dosage strength:
+How is supplied: Glucosamine Collagen Ibn Al Haytham Capsules : 30 Capsules</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -32265,7 +33458,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J279" t="n">
         <v>1</v>
       </c>
@@ -32296,9 +33493,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>3270</v>
+      </c>
       <c r="S279" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T279" t="inlineStr">
         <is>
@@ -32310,9 +33509,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V279" t="n">
-        <v>1</v>
-      </c>
+      <c r="V279" t="inlineStr"/>
       <c r="W279" t="n">
         <v>1</v>
       </c>
@@ -32331,9 +33528,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA279" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA279" t="inlineStr"/>
       <c r="AB279" t="n">
         <v>1</v>
       </c>
@@ -32349,7 +33544,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32368,21 +33563,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>1</v>
       </c>
@@ -32413,11 +33600,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R280" t="n">
-        <v>3278</v>
-      </c>
+      <c r="R280" t="inlineStr"/>
       <c r="S280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T280" t="inlineStr">
         <is>
@@ -32429,7 +33614,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V280" t="inlineStr"/>
+      <c r="V280" t="n">
+        <v>1</v>
+      </c>
       <c r="W280" t="n">
         <v>1</v>
       </c>
@@ -32448,7 +33635,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA280" t="inlineStr"/>
+      <c r="AA280" t="n">
+        <v>1</v>
+      </c>
       <c r="AB280" t="n">
         <v>1</v>
       </c>
@@ -32485,7 +33674,13 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Vitaglobin Syrup
+Therapeutic category: Food Supplement
+Active constituents: Each 10 ml vitagolbin syrup contains: Vitamin C (ascorbic acid) 20 mg, Vitamin B1 (as thiamine hydrochloride) 8 mg, Vitamin B2 (as riboflavin-5-phosphate sodium) 2 mg, Vitamin B3 (as Nicotineamide) 16 mg, Vitamin B5 (as Calcium D-Pantothenate) 4 mg, Vitamin B6 (as pyridoxine hydrochloride) 4 mg, Vitamin B12 (Cyanocopalamin) 10 µg, Folic acid 300 µg, Iron (as ferrice ammonium citrate) 14 mg, Zinc (as zinc gluconate) 10 mg, Copper (as copper sulfate) 500 µg, Manganese (as Manganese Sulfate) 0.5 mg, Lysine (as Lysine hydrochloride ) 80 mg, Iodine (as potassium iodide) 80 µg, Calcium glycerophosphate 20 mg, Honey 200 mg, Malt extract 1000 mg
+Description:
+Dosage form: Syrup
+Dosage strength: 200 ml
+How is supplied: Vitaglobin Syrup:200 ml with measuring cup</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -32529,10 +33724,10 @@
         </is>
       </c>
       <c r="R281" t="n">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="S281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T281" t="inlineStr">
         <is>
@@ -32579,12 +33774,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Aprevomit</t>
+          <t>Vitaglobin</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -32600,7 +33795,13 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Vitaglobin Syrup
+Therapeutic category: Food Supplement
+Active constituents: Each 10 ml vitagolbin syrup contains: Vitamin C (ascorbic acid) 20 mg, Vitamin B1 (as thiamine hydrochloride) 8 mg, Vitamin B2 (as riboflavin-5-phosphate sodium) 2 mg, Vitamin B3 (as Nicotineamide) 16 mg, Vitamin B5 (as Calcium D-Pantothenate) 4 mg, Vitamin B6 (as pyridoxine hydrochloride) 4 mg, Vitamin B12 (Cyanocopalamin) 10 µg, Folic acid 300 µg, Iron (as ferrice ammonium citrate) 14 mg, Zinc (as zinc gluconate) 10 mg, Copper (as copper sulfate) 500 µg, Manganese (as Manganese Sulfate) 0.5 mg, Lysine (as Lysine hydrochloride ) 80 mg, Iodine (as potassium iodide) 80 µg, Calcium glycerophosphate 20 mg, Honey 200 mg, Malt extract 1000 mg
+Description:
+Dosage form: Syrup
+Dosage strength: 200 ml
+How is supplied: Vitaglobin Syrup:200 ml with measuring cup</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -32608,7 +33809,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J282" t="n">
         <v>1</v>
       </c>
@@ -32626,7 +33831,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Gastrointestinal Drugs</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Food Supplement</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
@@ -32639,9 +33844,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>3279</v>
+      </c>
       <c r="S282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T282" t="inlineStr">
         <is>
@@ -32653,9 +33860,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V282" t="n">
-        <v>1</v>
-      </c>
+      <c r="V282" t="inlineStr"/>
       <c r="W282" t="n">
         <v>1</v>
       </c>
@@ -32674,9 +33879,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA282" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA282" t="inlineStr"/>
       <c r="AB282" t="n">
         <v>1</v>
       </c>
@@ -32692,7 +33895,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32711,21 +33914,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>1</v>
       </c>
@@ -32756,11 +33951,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R283" t="n">
-        <v>3281</v>
-      </c>
+      <c r="R283" t="inlineStr"/>
       <c r="S283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T283" t="inlineStr">
         <is>
@@ -32772,7 +33965,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V283" t="inlineStr"/>
+      <c r="V283" t="n">
+        <v>1</v>
+      </c>
       <c r="W283" t="n">
         <v>1</v>
       </c>
@@ -32791,7 +33986,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA283" t="inlineStr"/>
+      <c r="AA283" t="n">
+        <v>1</v>
+      </c>
       <c r="AB283" t="n">
         <v>1</v>
       </c>
@@ -32828,7 +34025,14 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Aprevomit 40
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Aprepitant 40
+Description:
+Dosage form: Capsules
+Dosage strength: 40 mg
+How is supplied: 1 – 2 Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -32872,10 +34076,10 @@
         </is>
       </c>
       <c r="R284" t="n">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="S284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -32943,7 +34147,14 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Aprevomit 40
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Aprepitant 40
+Description:
+Dosage form: Capsules
+Dosage strength: 40 mg
+How is supplied: 1 – 2 Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -32987,10 +34198,10 @@
         </is>
       </c>
       <c r="R285" t="n">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="S285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T285" t="inlineStr">
         <is>
@@ -33037,12 +34248,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Dexlans</t>
+          <t>Aprevomit</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -33058,7 +34269,14 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Aprevomit 40
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Aprepitant 40
+Description:
+Dosage form: Capsules
+Dosage strength: 40 mg
+How is supplied: 1 – 2 Capsules per Package
+Status: Under Development</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -33066,7 +34284,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J286" t="n">
         <v>1</v>
       </c>
@@ -33097,9 +34319,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>3282</v>
+      </c>
       <c r="S286" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T286" t="inlineStr">
         <is>
@@ -33111,9 +34335,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V286" t="n">
-        <v>1</v>
-      </c>
+      <c r="V286" t="inlineStr"/>
       <c r="W286" t="n">
         <v>1</v>
       </c>
@@ -33132,9 +34354,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA286" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA286" t="inlineStr"/>
       <c r="AB286" t="n">
         <v>1</v>
       </c>
@@ -33150,7 +34370,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33169,21 +34389,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>1</v>
       </c>
@@ -33214,11 +34426,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R287" t="n">
-        <v>3285</v>
-      </c>
+      <c r="R287" t="inlineStr"/>
       <c r="S287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T287" t="inlineStr">
         <is>
@@ -33230,7 +34440,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V287" t="inlineStr"/>
+      <c r="V287" t="n">
+        <v>1</v>
+      </c>
       <c r="W287" t="n">
         <v>1</v>
       </c>
@@ -33249,7 +34461,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA287" t="inlineStr"/>
+      <c r="AA287" t="n">
+        <v>1</v>
+      </c>
       <c r="AB287" t="n">
         <v>1</v>
       </c>
@@ -33286,7 +34500,13 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dexlans D.D.R 60 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Dexlans D.D.R 60 mg capsule contains: Dexlansoprazole (as dual delayed release pellets) 60 mg
+Description:
+Dosage form: Dual Delayed Release Capsules
+Dosage strength: 60 mg
+How is supplied: Dexlans D.D.R 60 mg dual delayed release capsules: 30 Capsules</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -33330,10 +34550,10 @@
         </is>
       </c>
       <c r="R288" t="n">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="S288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T288" t="inlineStr">
         <is>
@@ -33380,12 +34600,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Nexigast</t>
+          <t>Dexlans</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -33401,7 +34621,13 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dexlans D.D.R 60 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Dexlans D.D.R 60 mg capsule contains: Dexlansoprazole (as dual delayed release pellets) 60 mg
+Description:
+Dosage form: Dual Delayed Release Capsules
+Dosage strength: 60 mg
+How is supplied: Dexlans D.D.R 60 mg dual delayed release capsules: 30 Capsules</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -33409,7 +34635,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J289" t="n">
         <v>1</v>
       </c>
@@ -33440,9 +34670,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>3286</v>
+      </c>
       <c r="S289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T289" t="inlineStr">
         <is>
@@ -33454,9 +34686,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V289" t="n">
-        <v>1</v>
-      </c>
+      <c r="V289" t="inlineStr"/>
       <c r="W289" t="n">
         <v>1</v>
       </c>
@@ -33475,9 +34705,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA289" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA289" t="inlineStr"/>
       <c r="AB289" t="n">
         <v>1</v>
       </c>
@@ -33493,7 +34721,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33512,21 +34740,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>1</v>
       </c>
@@ -33557,11 +34777,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R290" t="n">
-        <v>3288</v>
-      </c>
+      <c r="R290" t="inlineStr"/>
       <c r="S290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T290" t="inlineStr">
         <is>
@@ -33573,7 +34791,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V290" t="inlineStr"/>
+      <c r="V290" t="n">
+        <v>1</v>
+      </c>
       <c r="W290" t="n">
         <v>1</v>
       </c>
@@ -33592,7 +34812,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA290" t="inlineStr"/>
+      <c r="AA290" t="n">
+        <v>1</v>
+      </c>
       <c r="AB290" t="n">
         <v>1</v>
       </c>
@@ -33629,7 +34851,13 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nexigast 20 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Nexigast 20 mg Delayed-Release Capsules contain: esomeprazole (as magnesium trihydrate) as enteric coated pellets.
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: 20 Delayed-Release Capsules</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -33673,10 +34901,10 @@
         </is>
       </c>
       <c r="R291" t="n">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="S291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T291" t="inlineStr">
         <is>
@@ -33744,7 +34972,13 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nexigast 20 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Nexigast 20 mg Delayed-Release Capsules contain: esomeprazole (as magnesium trihydrate) as enteric coated pellets.
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: 20 Delayed-Release Capsules</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -33788,10 +35022,10 @@
         </is>
       </c>
       <c r="R292" t="n">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="S292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
@@ -33859,7 +35093,13 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nexigast 20 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Nexigast 20 mg Delayed-Release Capsules contain: esomeprazole (as magnesium trihydrate) as enteric coated pellets.
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: 20 Delayed-Release Capsules</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -33903,10 +35143,10 @@
         </is>
       </c>
       <c r="R293" t="n">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="S293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -33974,7 +35214,13 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nexigast 20 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Nexigast 20 mg Delayed-Release Capsules contain: esomeprazole (as magnesium trihydrate) as enteric coated pellets.
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: 20 Delayed-Release Capsules</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -34018,10 +35264,10 @@
         </is>
       </c>
       <c r="R294" t="n">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="S294" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T294" t="inlineStr">
         <is>
@@ -34068,12 +35314,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Omecarbonate</t>
+          <t>Nexigast</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -34089,7 +35335,13 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nexigast 20 mg
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Nexigast 20 mg Delayed-Release Capsules contain: esomeprazole (as magnesium trihydrate) as enteric coated pellets.
+Description:
+Dosage form: Delayed-Release Capsules
+Dosage strength: 20 mg
+How is supplied: 20 Delayed-Release Capsules</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -34097,7 +35349,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J295" t="n">
         <v>1</v>
       </c>
@@ -34128,9 +35384,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>3289</v>
+      </c>
       <c r="S295" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T295" t="inlineStr">
         <is>
@@ -34142,9 +35400,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V295" t="n">
-        <v>1</v>
-      </c>
+      <c r="V295" t="inlineStr"/>
       <c r="W295" t="n">
         <v>1</v>
       </c>
@@ -34163,9 +35419,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA295" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA295" t="inlineStr"/>
       <c r="AB295" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +35435,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34200,21 +35454,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
         <v>1</v>
       </c>
@@ -34245,11 +35491,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R296" t="n">
-        <v>3294</v>
-      </c>
+      <c r="R296" t="inlineStr"/>
       <c r="S296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T296" t="inlineStr">
         <is>
@@ -34261,7 +35505,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V296" t="inlineStr"/>
+      <c r="V296" t="n">
+        <v>1</v>
+      </c>
       <c r="W296" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +35526,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA296" t="inlineStr"/>
+      <c r="AA296" t="n">
+        <v>1</v>
+      </c>
       <c r="AB296" t="n">
         <v>1</v>
       </c>
@@ -34317,7 +35565,15 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Omecarbonate 40
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Omecarbonate 40 Capsules Contains:
+Omeprazole 40 mg
+Sodium Bicarbonate 1100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 40 mg
+How is supplied: Omecarbonate 40: 10 Capsules</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -34361,10 +35617,10 @@
         </is>
       </c>
       <c r="R297" t="n">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="S297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T297" t="inlineStr">
         <is>
@@ -34411,12 +35667,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Glucofer</t>
+          <t>Omecarbonate</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -34432,7 +35688,15 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Omecarbonate 40
+Therapeutic category: Gastrointestinal Drugs
+Active constituents: Each Omecarbonate 40 Capsules Contains:
+Omeprazole 40 mg
+Sodium Bicarbonate 1100 mg
+Description:
+Dosage form: Capsules
+Dosage strength: 40 mg
+How is supplied: Omecarbonate 40: 10 Capsules</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -34440,7 +35704,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J298" t="n">
         <v>1</v>
       </c>
@@ -34458,7 +35726,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Iron Supplements</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Gastrointestinal Drugs</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
@@ -34471,9 +35739,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>3295</v>
+      </c>
       <c r="S298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T298" t="inlineStr">
         <is>
@@ -34485,9 +35755,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V298" t="n">
-        <v>1</v>
-      </c>
+      <c r="V298" t="inlineStr"/>
       <c r="W298" t="n">
         <v>1</v>
       </c>
@@ -34506,9 +35774,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA298" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA298" t="inlineStr"/>
       <c r="AB298" t="n">
         <v>1</v>
       </c>
@@ -34524,7 +35790,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34543,21 +35809,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>1</v>
       </c>
@@ -34588,11 +35846,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R299" t="n">
-        <v>3297</v>
-      </c>
+      <c r="R299" t="inlineStr"/>
       <c r="S299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T299" t="inlineStr">
         <is>
@@ -34604,7 +35860,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V299" t="inlineStr"/>
+      <c r="V299" t="n">
+        <v>1</v>
+      </c>
       <c r="W299" t="n">
         <v>1</v>
       </c>
@@ -34623,7 +35881,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA299" t="inlineStr"/>
+      <c r="AA299" t="n">
+        <v>1</v>
+      </c>
       <c r="AB299" t="n">
         <v>1</v>
       </c>
@@ -34660,7 +35920,13 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucofer Oral Vials
+Therapeutic category: Iron Supplements
+Active constituents: Each 10 ml Glucofer Oral Vial contains in the cap: Ferrous Gluconate 300 mg equivalent to Fe+2 37.5 mg and ingredients in the solution to dissolve the Ferrous Gluconate
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Glucofer Oral Vials :A box of 8 Oral Vials;each vial contains 10 ml.</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -34704,10 +35970,10 @@
         </is>
       </c>
       <c r="R300" t="n">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="S300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T300" t="inlineStr">
         <is>
@@ -34775,7 +36041,13 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucofer Oral Vials
+Therapeutic category: Iron Supplements
+Active constituents: Each 10 ml Glucofer Oral Vial contains in the cap: Ferrous Gluconate 300 mg equivalent to Fe+2 37.5 mg and ingredients in the solution to dissolve the Ferrous Gluconate
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Glucofer Oral Vials :A box of 8 Oral Vials;each vial contains 10 ml.</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -34819,10 +36091,10 @@
         </is>
       </c>
       <c r="R301" t="n">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="S301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T301" t="inlineStr">
         <is>
@@ -34869,12 +36141,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Ambroxol</t>
+          <t>Glucofer</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -34890,7 +36162,13 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Glucofer Oral Vials
+Therapeutic category: Iron Supplements
+Active constituents: Each 10 ml Glucofer Oral Vial contains in the cap: Ferrous Gluconate 300 mg equivalent to Fe+2 37.5 mg and ingredients in the solution to dissolve the Ferrous Gluconate
+Description:
+Dosage form: Oral vials
+Dosage strength:
+How is supplied: Glucofer Oral Vials :A box of 8 Oral Vials;each vial contains 10 ml.</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -34898,7 +36176,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I302" t="inlineStr"/>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J302" t="n">
         <v>1</v>
       </c>
@@ -34916,7 +36198,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Respiratory Tract Drugs</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Iron Supplements</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -34929,9 +36211,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>3298</v>
+      </c>
       <c r="S302" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T302" t="inlineStr">
         <is>
@@ -34943,9 +36227,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V302" t="n">
-        <v>1</v>
-      </c>
+      <c r="V302" t="inlineStr"/>
       <c r="W302" t="n">
         <v>1</v>
       </c>
@@ -34964,9 +36246,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA302" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA302" t="inlineStr"/>
       <c r="AB302" t="n">
         <v>1</v>
       </c>
@@ -34982,7 +36262,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -35001,21 +36281,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>1</v>
       </c>
@@ -35046,11 +36318,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R303" t="n">
-        <v>3301</v>
-      </c>
+      <c r="R303" t="inlineStr"/>
       <c r="S303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T303" t="inlineStr">
         <is>
@@ -35062,7 +36332,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V303" t="inlineStr"/>
+      <c r="V303" t="n">
+        <v>1</v>
+      </c>
       <c r="W303" t="n">
         <v>1</v>
       </c>
@@ -35081,7 +36353,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA303" t="inlineStr"/>
+      <c r="AA303" t="n">
+        <v>1</v>
+      </c>
       <c r="AB303" t="n">
         <v>1</v>
       </c>
@@ -35118,7 +36392,13 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ambroxol 30 mg
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Ambroxol 30 mg suppositories for children Contains: Ambroxol HCl 30 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Ambroxol 30 mg suppositories for children: 10 suppositories</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -35162,10 +36442,10 @@
         </is>
       </c>
       <c r="R304" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="S304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T304" t="inlineStr">
         <is>
@@ -35233,7 +36513,13 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ambroxol 30 mg
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Ambroxol 30 mg suppositories for children Contains: Ambroxol HCl 30 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Ambroxol 30 mg suppositories for children: 10 suppositories</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -35277,10 +36563,10 @@
         </is>
       </c>
       <c r="R305" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="S305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T305" t="inlineStr">
         <is>
@@ -35348,7 +36634,13 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ambroxol 30 mg
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Ambroxol 30 mg suppositories for children Contains: Ambroxol HCl 30 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Ambroxol 30 mg suppositories for children: 10 suppositories</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -35392,10 +36684,10 @@
         </is>
       </c>
       <c r="R306" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="S306" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T306" t="inlineStr">
         <is>
@@ -35442,12 +36734,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Brophenil</t>
+          <t>Ambroxol</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -35463,7 +36755,13 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Ambroxol 30 mg
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Ambroxol 30 mg suppositories for children Contains: Ambroxol HCl 30 mg
+Description:
+Dosage form: Suppositories
+Dosage strength:
+How is supplied: Ambroxol 30 mg suppositories for children: 10 suppositories</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -35471,7 +36769,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr"/>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J307" t="n">
         <v>1</v>
       </c>
@@ -35502,9 +36804,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>3302</v>
+      </c>
       <c r="S307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T307" t="inlineStr">
         <is>
@@ -35516,9 +36820,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V307" t="n">
-        <v>1</v>
-      </c>
+      <c r="V307" t="inlineStr"/>
       <c r="W307" t="n">
         <v>1</v>
       </c>
@@ -35537,9 +36839,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA307" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA307" t="inlineStr"/>
       <c r="AB307" t="n">
         <v>1</v>
       </c>
@@ -35555,7 +36855,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -35574,21 +36874,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
         <v>1</v>
       </c>
@@ -35619,11 +36911,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R308" t="n">
-        <v>3306</v>
-      </c>
+      <c r="R308" t="inlineStr"/>
       <c r="S308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T308" t="inlineStr">
         <is>
@@ -35635,7 +36925,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V308" t="inlineStr"/>
+      <c r="V308" t="n">
+        <v>1</v>
+      </c>
       <c r="W308" t="n">
         <v>1</v>
       </c>
@@ -35654,7 +36946,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA308" t="inlineStr"/>
+      <c r="AA308" t="n">
+        <v>1</v>
+      </c>
       <c r="AB308" t="n">
         <v>1</v>
       </c>
@@ -35691,7 +36985,13 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Brophenil Nasal Gel
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each 100 g Brophenil Gel contains: Phenylephrine HCl 250 mg, Dimethindene Maleate 25 mg
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Brophenil Nasal Gel Tube of 30 g</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -35735,10 +37035,10 @@
         </is>
       </c>
       <c r="R309" t="n">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="S309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -35785,12 +37085,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Budelar</t>
+          <t>Brophenil</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -35806,7 +37106,13 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Brophenil Nasal Gel
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each 100 g Brophenil Gel contains: Phenylephrine HCl 250 mg, Dimethindene Maleate 25 mg
+Description:
+Dosage form: Gel
+Dosage strength:
+How is supplied: Brophenil Nasal Gel Tube of 30 g</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -35814,7 +37120,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J310" t="n">
         <v>1</v>
       </c>
@@ -35845,9 +37155,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>3307</v>
+      </c>
       <c r="S310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T310" t="inlineStr">
         <is>
@@ -35859,9 +37171,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V310" t="n">
-        <v>1</v>
-      </c>
+      <c r="V310" t="inlineStr"/>
       <c r="W310" t="n">
         <v>1</v>
       </c>
@@ -35880,9 +37190,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA310" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA310" t="inlineStr"/>
       <c r="AB310" t="n">
         <v>1</v>
       </c>
@@ -35898,7 +37206,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -35917,21 +37225,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
         <v>1</v>
       </c>
@@ -35962,11 +37262,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R311" t="n">
-        <v>3309</v>
-      </c>
+      <c r="R311" t="inlineStr"/>
       <c r="S311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T311" t="inlineStr">
         <is>
@@ -35978,7 +37276,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V311" t="inlineStr"/>
+      <c r="V311" t="n">
+        <v>1</v>
+      </c>
       <c r="W311" t="n">
         <v>1</v>
       </c>
@@ -35997,7 +37297,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA311" t="inlineStr"/>
+      <c r="AA311" t="n">
+        <v>1</v>
+      </c>
       <c r="AB311" t="n">
         <v>1</v>
       </c>
@@ -36034,7 +37336,13 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Budelar 400
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Budelar 400 capsule for oral inhalation contains: Budesonide 460 mcg (releases 400 mcg budesonide from inhaler device).
+Description:
+Dosage form: Capsule for oral inhalation
+Dosage strength: 400 mg
+How is supplied: Budelar 400: 60 capsules for oral inhalation with an inhaler device</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -36078,10 +37386,10 @@
         </is>
       </c>
       <c r="R312" t="n">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="S312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T312" t="inlineStr">
         <is>
@@ -36128,12 +37436,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Profigrip</t>
+          <t>Budelar</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -36149,7 +37457,13 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Budelar 400
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Budelar 400 capsule for oral inhalation contains: Budesonide 460 mcg (releases 400 mcg budesonide from inhaler device).
+Description:
+Dosage form: Capsule for oral inhalation
+Dosage strength: 400 mg
+How is supplied: Budelar 400: 60 capsules for oral inhalation with an inhaler device</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -36157,7 +37471,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I313" t="inlineStr"/>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J313" t="n">
         <v>1</v>
       </c>
@@ -36188,9 +37506,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>3310</v>
+      </c>
       <c r="S313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T313" t="inlineStr">
         <is>
@@ -36202,9 +37522,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V313" t="n">
-        <v>1</v>
-      </c>
+      <c r="V313" t="inlineStr"/>
       <c r="W313" t="n">
         <v>1</v>
       </c>
@@ -36223,9 +37541,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA313" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA313" t="inlineStr"/>
       <c r="AB313" t="n">
         <v>1</v>
       </c>
@@ -36241,7 +37557,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -36260,21 +37576,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
         <v>1</v>
       </c>
@@ -36305,11 +37613,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R314" t="n">
-        <v>3312</v>
-      </c>
+      <c r="R314" t="inlineStr"/>
       <c r="S314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T314" t="inlineStr">
         <is>
@@ -36321,7 +37627,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V314" t="inlineStr"/>
+      <c r="V314" t="n">
+        <v>1</v>
+      </c>
       <c r="W314" t="n">
         <v>1</v>
       </c>
@@ -36340,7 +37648,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA314" t="inlineStr"/>
+      <c r="AA314" t="n">
+        <v>1</v>
+      </c>
       <c r="AB314" t="n">
         <v>1</v>
       </c>
@@ -36377,7 +37687,13 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Profigrip Tablets
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Profigrip Film Coated Tablet contains: Ibuprofen 200 mg Pseudoephedrine HCl 30 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Profigrip: 20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -36421,10 +37737,10 @@
         </is>
       </c>
       <c r="R315" t="n">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="S315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T315" t="inlineStr">
         <is>
@@ -36492,7 +37808,13 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Profigrip Tablets
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Profigrip Film Coated Tablet contains: Ibuprofen 200 mg Pseudoephedrine HCl 30 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Profigrip: 20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -36536,10 +37858,10 @@
         </is>
       </c>
       <c r="R316" t="n">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="S316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -36586,12 +37908,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Loricstat</t>
+          <t>Profigrip</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -36607,7 +37929,13 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Profigrip Tablets
+Therapeutic category: Respiratory Tract Drugs
+Active constituents: Each Profigrip Film Coated Tablet contains: Ibuprofen 200 mg Pseudoephedrine HCl 30 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength:
+How is supplied: Profigrip: 20 Film Coated Tablets</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -36615,7 +37943,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J317" t="n">
         <v>1</v>
       </c>
@@ -36633,7 +37965,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Urate Lowering Drugs</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Respiratory Tract Drugs</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
@@ -36646,9 +37978,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>3313</v>
+      </c>
       <c r="S317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T317" t="inlineStr">
         <is>
@@ -36660,9 +37994,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V317" t="n">
-        <v>1</v>
-      </c>
+      <c r="V317" t="inlineStr"/>
       <c r="W317" t="n">
         <v>1</v>
       </c>
@@ -36681,9 +38013,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA317" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA317" t="inlineStr"/>
       <c r="AB317" t="n">
         <v>1</v>
       </c>
@@ -36699,7 +38029,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -36718,21 +38048,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
         <v>1</v>
       </c>
@@ -36763,11 +38085,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R318" t="n">
-        <v>3316</v>
-      </c>
+      <c r="R318" t="inlineStr"/>
       <c r="S318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T318" t="inlineStr">
         <is>
@@ -36779,7 +38099,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V318" t="inlineStr"/>
+      <c r="V318" t="n">
+        <v>1</v>
+      </c>
       <c r="W318" t="n">
         <v>1</v>
       </c>
@@ -36798,7 +38120,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA318" t="inlineStr"/>
+      <c r="AA318" t="n">
+        <v>1</v>
+      </c>
       <c r="AB318" t="n">
         <v>1</v>
       </c>
@@ -36835,7 +38159,13 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Loricstat 40 mg
+Therapeutic category: Urate Lowering Drugs
+Active constituents: Each Loricstat 40 mg film coated tablet contains: Febuxostat 40 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 40 mg
+How is supplied: Loricstat 40 mg : 28 film coated tablets</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -36879,10 +38209,10 @@
         </is>
       </c>
       <c r="R319" t="n">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="S319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T319" t="inlineStr">
         <is>
@@ -36950,7 +38280,13 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Loricstat 40 mg
+Therapeutic category: Urate Lowering Drugs
+Active constituents: Each Loricstat 40 mg film coated tablet contains: Febuxostat 40 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 40 mg
+How is supplied: Loricstat 40 mg : 28 film coated tablets</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -36994,10 +38330,10 @@
         </is>
       </c>
       <c r="R320" t="n">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="S320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T320" t="inlineStr">
         <is>
@@ -37044,12 +38380,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Silodosin</t>
+          <t>Loricstat</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -37065,7 +38401,13 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Loricstat 40 mg
+Therapeutic category: Urate Lowering Drugs
+Active constituents: Each Loricstat 40 mg film coated tablet contains: Febuxostat 40 mg
+Description:
+Dosage form: film coated tablet
+Dosage strength: 40 mg
+How is supplied: Loricstat 40 mg : 28 film coated tablets</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -37073,7 +38415,11 @@
           <t>taxable</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
       <c r="J321" t="n">
         <v>1</v>
       </c>
@@ -37091,7 +38437,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Urological Drugs</t>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Urate Lowering Drugs</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
@@ -37104,9 +38450,11 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="n">
+        <v>3317</v>
+      </c>
       <c r="S321" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -37118,9 +38466,7 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V321" t="n">
-        <v>1</v>
-      </c>
+      <c r="V321" t="inlineStr"/>
       <c r="W321" t="n">
         <v>1</v>
       </c>
@@ -37139,9 +38485,7 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA321" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA321" t="inlineStr"/>
       <c r="AB321" t="n">
         <v>1</v>
       </c>
@@ -37157,7 +38501,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -37176,21 +38520,13 @@
           <t>visible</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
         <is>
           <t>taxable</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
         <v>1</v>
       </c>
@@ -37221,11 +38557,9 @@
           <t>img</t>
         </is>
       </c>
-      <c r="R322" t="n">
-        <v>3320</v>
-      </c>
+      <c r="R322" t="inlineStr"/>
       <c r="S322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T322" t="inlineStr">
         <is>
@@ -37237,7 +38571,9 @@
           <t>Attribute 1 value(s)</t>
         </is>
       </c>
-      <c r="V322" t="inlineStr"/>
+      <c r="V322" t="n">
+        <v>1</v>
+      </c>
       <c r="W322" t="n">
         <v>1</v>
       </c>
@@ -37256,7 +38592,9 @@
           <t>Attribute 2 value(s)</t>
         </is>
       </c>
-      <c r="AA322" t="inlineStr"/>
+      <c r="AA322" t="n">
+        <v>1</v>
+      </c>
       <c r="AB322" t="n">
         <v>1</v>
       </c>
@@ -37293,7 +38631,13 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Silodosin Ibn Al Haytham 8 mg
+Therapeutic category: Urological Drugs
+Active constituents: Silodosin Ibn Al Haytham 8 mg capsule contains: Silodosin
+Description:
+Dosage form: Capsules
+Dosage strength: 8 mg
+How is supplied: Silodosin Ibn Al Haytham 8 mg capsules: 20 Capsules</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -37337,10 +38681,10 @@
         </is>
       </c>
       <c r="R323" t="n">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="S323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T323" t="inlineStr">
         <is>
@@ -37376,6 +38720,127 @@
         <v>1</v>
       </c>
       <c r="AC323" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>3323</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>variation</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Silodosin</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Silodosin Ibn Al Haytham 8 mg
+Therapeutic category: Urological Drugs
+Active constituents: Silodosin Ibn Al Haytham 8 mg capsule contains: Silodosin
+Description:
+Dosage form: Capsules
+Dosage strength: 8 mg
+How is supplied: Silodosin Ibn Al Haytham 8 mg capsules: 20 Capsules</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>Ibn Alhaytham, Ibn Alhaytham &gt; Urological Drugs</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="R324" t="n">
+        <v>3321</v>
+      </c>
+      <c r="S324" t="n">
+        <v>2</v>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr"/>
+      <c r="W324" t="n">
+        <v>1</v>
+      </c>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA324" t="inlineStr"/>
+      <c r="AB324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC324" t="inlineStr">
         <is>
           <t>Attribute 2 default</t>
         </is>

--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC535"/>
+  <dimension ref="A1:AC604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62779,6 +62779,7774 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>3535</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Campo Appetizing Mixture</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>1</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>1</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>1</v>
+      </c>
+      <c r="N536" t="n">
+        <v>1</v>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Mixtures</t>
+        </is>
+      </c>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-appetizing-mixture.jpg</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr"/>
+      <c r="S536" t="n">
+        <v>0</v>
+      </c>
+      <c r="T536" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U536" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V536" t="n">
+        <v>1</v>
+      </c>
+      <c r="W536" t="n">
+        <v>1</v>
+      </c>
+      <c r="X536" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y536" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z536" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA536" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB536" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC536" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>3536</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Campo Expectorant Cough Mixture</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>1</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>1</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>1</v>
+      </c>
+      <c r="N537" t="n">
+        <v>1</v>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Mixtures</t>
+        </is>
+      </c>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q537" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-expectorant-cough-mixture.jpg</t>
+        </is>
+      </c>
+      <c r="R537" t="inlineStr"/>
+      <c r="S537" t="n">
+        <v>0</v>
+      </c>
+      <c r="T537" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U537" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V537" t="n">
+        <v>1</v>
+      </c>
+      <c r="W537" t="n">
+        <v>1</v>
+      </c>
+      <c r="X537" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y537" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z537" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA537" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB537" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC537" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>3537</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Campo Kidney Stone Breaking Mixture</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>1</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>1</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>1</v>
+      </c>
+      <c r="N538" t="n">
+        <v>1</v>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Mixtures</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q538" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-kidney-stone-breaking-mixture.jpg</t>
+        </is>
+      </c>
+      <c r="R538" t="inlineStr"/>
+      <c r="S538" t="n">
+        <v>0</v>
+      </c>
+      <c r="T538" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U538" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V538" t="n">
+        <v>1</v>
+      </c>
+      <c r="W538" t="n">
+        <v>1</v>
+      </c>
+      <c r="X538" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y538" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z538" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA538" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB538" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC538" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>3538</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Campo Memory Stimulant Mixture</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>1</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>1</v>
+      </c>
+      <c r="N539" t="n">
+        <v>1</v>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Mixtures</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-memory-stimulant-mixture.jpg</t>
+        </is>
+      </c>
+      <c r="R539" t="inlineStr"/>
+      <c r="S539" t="n">
+        <v>0</v>
+      </c>
+      <c r="T539" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U539" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V539" t="n">
+        <v>1</v>
+      </c>
+      <c r="W539" t="n">
+        <v>1</v>
+      </c>
+      <c r="X539" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y539" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z539" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA539" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB539" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC539" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>3539</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Campo Wild Thyme</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>1</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>1</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>1</v>
+      </c>
+      <c r="N540" t="n">
+        <v>1</v>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q540" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-wild-thyme.jpg</t>
+        </is>
+      </c>
+      <c r="R540" t="inlineStr"/>
+      <c r="S540" t="n">
+        <v>0</v>
+      </c>
+      <c r="T540" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U540" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V540" t="n">
+        <v>1</v>
+      </c>
+      <c r="W540" t="n">
+        <v>1</v>
+      </c>
+      <c r="X540" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y540" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z540" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA540" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB540" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC540" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>3540</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Campo Sage</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>1</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>1</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>1</v>
+      </c>
+      <c r="N541" t="n">
+        <v>1</v>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q541" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-sage.jpg</t>
+        </is>
+      </c>
+      <c r="R541" t="inlineStr"/>
+      <c r="S541" t="n">
+        <v>0</v>
+      </c>
+      <c r="T541" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U541" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V541" t="n">
+        <v>1</v>
+      </c>
+      <c r="W541" t="n">
+        <v>1</v>
+      </c>
+      <c r="X541" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y541" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z541" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA541" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB541" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC541" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>3541</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Campo Mint</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0</v>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>1</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>1</v>
+      </c>
+      <c r="N542" t="n">
+        <v>1</v>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q542" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-mint.jpg</t>
+        </is>
+      </c>
+      <c r="R542" t="inlineStr"/>
+      <c r="S542" t="n">
+        <v>0</v>
+      </c>
+      <c r="T542" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U542" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V542" t="n">
+        <v>1</v>
+      </c>
+      <c r="W542" t="n">
+        <v>1</v>
+      </c>
+      <c r="X542" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y542" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z542" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA542" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB542" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC542" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>3542</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Campo Jouri Flowers</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>1</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>1</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>1</v>
+      </c>
+      <c r="N543" t="n">
+        <v>1</v>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-jouri-flowers.jpg</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr"/>
+      <c r="S543" t="n">
+        <v>0</v>
+      </c>
+      <c r="T543" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U543" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V543" t="n">
+        <v>1</v>
+      </c>
+      <c r="W543" t="n">
+        <v>1</v>
+      </c>
+      <c r="X543" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y543" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z543" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA543" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB543" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC543" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>3543</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Campo Hyssop</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>1</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>1</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>1</v>
+      </c>
+      <c r="N544" t="n">
+        <v>1</v>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q544" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-hyssop.jpg</t>
+        </is>
+      </c>
+      <c r="R544" t="inlineStr"/>
+      <c r="S544" t="n">
+        <v>0</v>
+      </c>
+      <c r="T544" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U544" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V544" t="n">
+        <v>1</v>
+      </c>
+      <c r="W544" t="n">
+        <v>1</v>
+      </c>
+      <c r="X544" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y544" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z544" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA544" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB544" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC544" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>3544</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Campo Hibiscus</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>1</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>1</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>1</v>
+      </c>
+      <c r="N545" t="n">
+        <v>1</v>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-hibiscus.jpg</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr"/>
+      <c r="S545" t="n">
+        <v>0</v>
+      </c>
+      <c r="T545" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U545" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V545" t="n">
+        <v>1</v>
+      </c>
+      <c r="W545" t="n">
+        <v>1</v>
+      </c>
+      <c r="X545" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y545" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z545" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA545" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB545" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC545" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Campo Hibiscus With Jouri Flowers</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>1</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>1</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>1</v>
+      </c>
+      <c r="N546" t="n">
+        <v>1</v>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P546" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-hibiscus-with-jouri-flowers.jpg</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr"/>
+      <c r="S546" t="n">
+        <v>0</v>
+      </c>
+      <c r="T546" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U546" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V546" t="n">
+        <v>1</v>
+      </c>
+      <c r="W546" t="n">
+        <v>1</v>
+      </c>
+      <c r="X546" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y546" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z546" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA546" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB546" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC546" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>3546</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Campo Cumin and Lemon</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>1</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>1</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>1</v>
+      </c>
+      <c r="N547" t="n">
+        <v>1</v>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-cumin-and-lemon.jpg</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr"/>
+      <c r="S547" t="n">
+        <v>0</v>
+      </c>
+      <c r="T547" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U547" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V547" t="n">
+        <v>1</v>
+      </c>
+      <c r="W547" t="n">
+        <v>1</v>
+      </c>
+      <c r="X547" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y547" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z547" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA547" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB547" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC547" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>3547</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Campo Chamomile and Mint</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>1</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>1</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>1</v>
+      </c>
+      <c r="N548" t="n">
+        <v>1</v>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Herbs</t>
+        </is>
+      </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-chamomile-and-mint.jpg</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr"/>
+      <c r="S548" t="n">
+        <v>0</v>
+      </c>
+      <c r="T548" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U548" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V548" t="n">
+        <v>1</v>
+      </c>
+      <c r="W548" t="n">
+        <v>1</v>
+      </c>
+      <c r="X548" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y548" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z548" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA548" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB548" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC548" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>3548</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Campo Tea White Label 25 Tea Bag</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>1</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>1</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>1</v>
+      </c>
+      <c r="N549" t="n">
+        <v>1</v>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo White Label Tea</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-tea-white-label.jpg</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr"/>
+      <c r="S549" t="n">
+        <v>0</v>
+      </c>
+      <c r="T549" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U549" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V549" t="n">
+        <v>1</v>
+      </c>
+      <c r="W549" t="n">
+        <v>1</v>
+      </c>
+      <c r="X549" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y549" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z549" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA549" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB549" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC549" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>3549</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Campo Tea White Label 100 Tea Bag</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>1</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>1</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>1</v>
+      </c>
+      <c r="N550" t="n">
+        <v>1</v>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo White Label Tea</t>
+        </is>
+      </c>
+      <c r="P550" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-tea-white-label-100g.jpg</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr"/>
+      <c r="S550" t="n">
+        <v>0</v>
+      </c>
+      <c r="T550" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U550" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V550" t="n">
+        <v>1</v>
+      </c>
+      <c r="W550" t="n">
+        <v>1</v>
+      </c>
+      <c r="X550" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y550" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z550" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA550" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB550" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC550" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>3550</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Campo Black Tea 90g</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>1</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>1</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>1</v>
+      </c>
+      <c r="N551" t="n">
+        <v>1</v>
+      </c>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Black Tea</t>
+        </is>
+      </c>
+      <c r="P551" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-black-tea-90g.jpg</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr"/>
+      <c r="S551" t="n">
+        <v>0</v>
+      </c>
+      <c r="T551" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U551" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V551" t="n">
+        <v>1</v>
+      </c>
+      <c r="W551" t="n">
+        <v>1</v>
+      </c>
+      <c r="X551" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y551" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z551" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA551" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB551" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC551" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>3551</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Campo Dry Milk</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>1</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>1</v>
+      </c>
+      <c r="N552" t="n">
+        <v>1</v>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Powderd Milk</t>
+        </is>
+      </c>
+      <c r="P552" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-dry-milk-150g.jpg, https://almousoaa.com/wp-content/uploads/2024/05/campo-dry-milk-200g.jpg</t>
+        </is>
+      </c>
+      <c r="R552" t="inlineStr"/>
+      <c r="S552" t="n">
+        <v>0</v>
+      </c>
+      <c r="T552" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U552" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V552" t="n">
+        <v>1</v>
+      </c>
+      <c r="W552" t="n">
+        <v>1</v>
+      </c>
+      <c r="X552" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y552" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z552" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA552" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB552" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC552" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>3552</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>variation</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Campo Dry Milk</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>1</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="J553" t="n">
+        <v>1</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>1</v>
+      </c>
+      <c r="N553" t="n">
+        <v>1</v>
+      </c>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Powderd Milk</t>
+        </is>
+      </c>
+      <c r="P553" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-dry-milk-150g.jpg</t>
+        </is>
+      </c>
+      <c r="R553" t="n">
+        <v>3551</v>
+      </c>
+      <c r="S553" t="n">
+        <v>1</v>
+      </c>
+      <c r="T553" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U553" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V553" t="inlineStr"/>
+      <c r="W553" t="n">
+        <v>1</v>
+      </c>
+      <c r="X553" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y553" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z553" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA553" t="inlineStr"/>
+      <c r="AB553" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC553" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>3553</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>variation</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Campo Dry Milk</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>1</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="J554" t="n">
+        <v>1</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M554" t="n">
+        <v>1</v>
+      </c>
+      <c r="N554" t="n">
+        <v>1</v>
+      </c>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Powderd Milk</t>
+        </is>
+      </c>
+      <c r="P554" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-dry-milk-200g.jpg</t>
+        </is>
+      </c>
+      <c r="R554" t="n">
+        <v>3551</v>
+      </c>
+      <c r="S554" t="n">
+        <v>2</v>
+      </c>
+      <c r="T554" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U554" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V554" t="inlineStr"/>
+      <c r="W554" t="n">
+        <v>1</v>
+      </c>
+      <c r="X554" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y554" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z554" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA554" t="inlineStr"/>
+      <c r="AB554" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC554" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>3554</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Campo Red Tea 100 Tea Bags</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>1</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>1</v>
+      </c>
+      <c r="N555" t="n">
+        <v>1</v>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Red Tea</t>
+        </is>
+      </c>
+      <c r="P555" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-black-tea-100g.jpg</t>
+        </is>
+      </c>
+      <c r="R555" t="inlineStr"/>
+      <c r="S555" t="n">
+        <v>0</v>
+      </c>
+      <c r="T555" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U555" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V555" t="n">
+        <v>1</v>
+      </c>
+      <c r="W555" t="n">
+        <v>1</v>
+      </c>
+      <c r="X555" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y555" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z555" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA555" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB555" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC555" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>3555</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Campo Red Tea 200g</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>1</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>1</v>
+      </c>
+      <c r="N556" t="n">
+        <v>1</v>
+      </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Red Tea</t>
+        </is>
+      </c>
+      <c r="P556" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-red-tea-200g.jpg</t>
+        </is>
+      </c>
+      <c r="R556" t="inlineStr"/>
+      <c r="S556" t="n">
+        <v>0</v>
+      </c>
+      <c r="T556" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U556" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V556" t="n">
+        <v>1</v>
+      </c>
+      <c r="W556" t="n">
+        <v>1</v>
+      </c>
+      <c r="X556" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y556" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z556" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA556" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB556" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC556" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>3556</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Campo Red Tea 400g</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>1</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>1</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>1</v>
+      </c>
+      <c r="N557" t="n">
+        <v>1</v>
+      </c>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Red Tea</t>
+        </is>
+      </c>
+      <c r="P557" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-red-tea-400g.jpg</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr"/>
+      <c r="S557" t="n">
+        <v>0</v>
+      </c>
+      <c r="T557" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U557" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V557" t="n">
+        <v>1</v>
+      </c>
+      <c r="W557" t="n">
+        <v>1</v>
+      </c>
+      <c r="X557" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y557" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z557" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA557" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB557" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC557" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>3557</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Campo Red Tea Cardamom</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>1</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>1</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>1</v>
+      </c>
+      <c r="N558" t="n">
+        <v>1</v>
+      </c>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Red Tea</t>
+        </is>
+      </c>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-red-tea-cardamom.jpg</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr"/>
+      <c r="S558" t="n">
+        <v>0</v>
+      </c>
+      <c r="T558" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U558" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V558" t="n">
+        <v>1</v>
+      </c>
+      <c r="W558" t="n">
+        <v>1</v>
+      </c>
+      <c r="X558" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y558" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z558" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA558" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB558" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC558" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Campo Red Tea Mint Flavor</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>1</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>1</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>1</v>
+      </c>
+      <c r="N559" t="n">
+        <v>1</v>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Red Tea</t>
+        </is>
+      </c>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-red-tea-mint-flavor.jpg</t>
+        </is>
+      </c>
+      <c r="R559" t="inlineStr"/>
+      <c r="S559" t="n">
+        <v>0</v>
+      </c>
+      <c r="T559" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U559" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V559" t="n">
+        <v>1</v>
+      </c>
+      <c r="W559" t="n">
+        <v>1</v>
+      </c>
+      <c r="X559" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y559" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z559" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA559" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB559" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC559" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>3559</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Campo Red Tea Natural Ginger Flavor</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>1</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>1</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>1</v>
+      </c>
+      <c r="N560" t="n">
+        <v>1</v>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Red Tea</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-red-tea-natural-ginger-flavor-.jpg</t>
+        </is>
+      </c>
+      <c r="R560" t="inlineStr"/>
+      <c r="S560" t="n">
+        <v>0</v>
+      </c>
+      <c r="T560" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U560" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V560" t="n">
+        <v>1</v>
+      </c>
+      <c r="W560" t="n">
+        <v>1</v>
+      </c>
+      <c r="X560" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y560" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z560" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA560" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB560" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC560" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Campo Green Tea</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>1</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>1</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>1</v>
+      </c>
+      <c r="N561" t="n">
+        <v>1</v>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Green Tea</t>
+        </is>
+      </c>
+      <c r="P561" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-green-tea.jpg</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr"/>
+      <c r="S561" t="n">
+        <v>0</v>
+      </c>
+      <c r="T561" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U561" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V561" t="n">
+        <v>1</v>
+      </c>
+      <c r="W561" t="n">
+        <v>1</v>
+      </c>
+      <c r="X561" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y561" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z561" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA561" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB561" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC561" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>3561</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Campo Green Tea With Ginger</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>1</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>1</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>1</v>
+      </c>
+      <c r="N562" t="n">
+        <v>1</v>
+      </c>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Green Tea</t>
+        </is>
+      </c>
+      <c r="P562" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-green-tea-with-ginger.jpg</t>
+        </is>
+      </c>
+      <c r="R562" t="inlineStr"/>
+      <c r="S562" t="n">
+        <v>0</v>
+      </c>
+      <c r="T562" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U562" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V562" t="n">
+        <v>1</v>
+      </c>
+      <c r="W562" t="n">
+        <v>1</v>
+      </c>
+      <c r="X562" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y562" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z562" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA562" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB562" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC562" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>3562</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Campo Green Tea With Lemon</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>1</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>1</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M563" t="n">
+        <v>1</v>
+      </c>
+      <c r="N563" t="n">
+        <v>1</v>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>Kabour Group, Compo Green Tea</t>
+        </is>
+      </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/campo-tea-with-lemon.jpg</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr"/>
+      <c r="S563" t="n">
+        <v>0</v>
+      </c>
+      <c r="T563" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U563" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V563" t="n">
+        <v>1</v>
+      </c>
+      <c r="W563" t="n">
+        <v>1</v>
+      </c>
+      <c r="X563" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y563" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z563" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA563" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB563" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC563" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>3563</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Viminova Vision</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>1</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>Complete care for eye health and vision safety.
+viminova vision provides the ideal combination to maintain eye and vision health and safety, especially for people who suffer from poor vision or who wear lenses constantly.
+viminova vision is made in Denmark by Scan Pharma.</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>1</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>1</v>
+      </c>
+      <c r="N564" t="n">
+        <v>1</v>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>Paramedica, Eye Health and Vision Care</t>
+        </is>
+      </c>
+      <c r="P564" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/viminova-vision.jpg</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr"/>
+      <c r="S564" t="n">
+        <v>0</v>
+      </c>
+      <c r="T564" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U564" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V564" t="n">
+        <v>1</v>
+      </c>
+      <c r="W564" t="n">
+        <v>1</v>
+      </c>
+      <c r="X564" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y564" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z564" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA564" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB564" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC564" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>3564</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Viminova Bone Health</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>1</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharmaceutical composition:
+- Boron 1.5 mg
+- Calcium 400 mg
+- Vitamin D3 (IU 400)
+Pharmaceutical use:
+- It is used to treat osteoporosis and calcium deficiency.
+- It is used in women over the age of 40.
+- It is used in people who suffer from hyperthyroidism and unbalanced metabolism.
+Made by the Danish company Scan Pharma </t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>1</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M565" t="n">
+        <v>1</v>
+      </c>
+      <c r="N565" t="n">
+        <v>1</v>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>Paramedica, Osteoporosis Treatment</t>
+        </is>
+      </c>
+      <c r="P565" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/viminova-bone-health-768x608.jpg</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr"/>
+      <c r="S565" t="n">
+        <v>0</v>
+      </c>
+      <c r="T565" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U565" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V565" t="n">
+        <v>1</v>
+      </c>
+      <c r="W565" t="n">
+        <v>1</v>
+      </c>
+      <c r="X565" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y565" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z565" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA565" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB565" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC565" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>3565</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Seoul Sun Block Cream</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>1</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>Seoul sunscreen from Paramedica is distinguished by its effective formula:
+- zinc oxide
+- titanium dioxide
+- niacin amide B3
+- in addition to important herbal extracts that guarantee excellent protection against the sun’s rays, which are: guava fruit extract – acerola – kiwi – mangosteen – lychee densis – durian – blueberry – wild raspberry
+Advantages of sunscreen:
+- It will give the skin freshness, improve its appearance, and resist wrinkles because it contains a high percentage of vitamins, minerals, and antioxidants that inhibit free radicals that are harmful to the skin.
+- Provide protection while swimming.
+- It forms a basic base for makeup.
+- It protects the skin from the effects of UVA &amp; UVB rays.
+- suitable for all skin types and has no harmful effects.
+- easy to apply 15 minutes before exposure to the sun and has a soft texture.
+Available in a size of 50g.</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>1</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>1</v>
+      </c>
+      <c r="N566" t="n">
+        <v>1</v>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>Paramedica, Sunscreen Creams</t>
+        </is>
+      </c>
+      <c r="P566" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/seoul-sun-block-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr"/>
+      <c r="S566" t="n">
+        <v>0</v>
+      </c>
+      <c r="T566" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U566" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V566" t="n">
+        <v>1</v>
+      </c>
+      <c r="W566" t="n">
+        <v>1</v>
+      </c>
+      <c r="X566" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y566" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z566" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA566" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB566" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC566" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>3566</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Paranon A Plus</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>1</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>Chemical composition:
+- Vitamin A
+- Panthenol (Vitamin B5)
+- Ascorbyl Palmitate (a fat-soluble derivative of Vitamin C)</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>1</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>1</v>
+      </c>
+      <c r="N567" t="n">
+        <v>1</v>
+      </c>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>Paramedica, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P567" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/paranon-a-plus.jpg</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr"/>
+      <c r="S567" t="n">
+        <v>0</v>
+      </c>
+      <c r="T567" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U567" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V567" t="n">
+        <v>1</v>
+      </c>
+      <c r="W567" t="n">
+        <v>1</v>
+      </c>
+      <c r="X567" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y567" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z567" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA567" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB567" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC567" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>3567</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Pantenox B5</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>1</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0</v>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>The ideal moisturizer.. gives the skin vitality and freshness, especially for those with dry skin.
+Composition:
+- 5% Dexpanthenol 
+- 1% Allantoin 
+- 1% Vit E 
+- 1% Shea Butter.
+    - Shea butter has moisturizing properties because it contains fatty acids that maintain the skin’s moisture and protect it from dryness.
+    - It helps get rid of scars and dark pigmentation resulting from acne.
+    - It has antioxidant properties that protect the skin from free radicals, which maintains the freshness of the skin and prevents signs of aging.
+    - Treats eczema and skin infections.
+    - It also helps get rid of the effects of sunburn and stretch marks on the skin.
+Pantinox has a gel consistency, which ensures easier application and good distribution of the medicinal substance, thus obtaining good absorption and faster effectiveness.</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>1</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>1</v>
+      </c>
+      <c r="N568" t="n">
+        <v>1</v>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>Paramedica, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P568" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/pantenox-b5.jpg</t>
+        </is>
+      </c>
+      <c r="R568" t="inlineStr"/>
+      <c r="S568" t="n">
+        <v>0</v>
+      </c>
+      <c r="T568" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U568" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V568" t="n">
+        <v>1</v>
+      </c>
+      <c r="W568" t="n">
+        <v>1</v>
+      </c>
+      <c r="X568" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y568" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z568" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA568" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB568" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC568" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>3568</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>oramin e</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>1</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0</v>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>Oramin-E is characterized by the presence of pure Korean ginseng, which greatly supports the immune system and increases the body’s resistance to diseases.
+A general tonic for all body functions and enzymes. It eliminates the feeling of fatigue and increases physical ability, in addition to its positive effects on the heart and circulatory system thanks to the garlic extract contained in its formula.
+Oramin-E is one of the safe solutions for erectile dysfunction.
+Each gelatin capsule contains:
+- Pure Korean ginseng: 100 mg
+- Vitamin E: 100 mg
+- Garlic oil extract: 10 mg
+- A complete set of vitamins and minerals</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>1</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>1</v>
+      </c>
+      <c r="N569" t="n">
+        <v>1</v>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>Paramedica, Amino Acids, Vitamins and Minerals</t>
+        </is>
+      </c>
+      <c r="P569" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q569" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/oramin-e.jpg</t>
+        </is>
+      </c>
+      <c r="R569" t="inlineStr"/>
+      <c r="S569" t="n">
+        <v>0</v>
+      </c>
+      <c r="T569" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U569" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V569" t="n">
+        <v>1</v>
+      </c>
+      <c r="W569" t="n">
+        <v>1</v>
+      </c>
+      <c r="X569" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y569" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z569" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA569" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB569" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC569" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>3569</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Mibone</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>1</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0</v>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>It is used to treat all types of burns, including first-degree sunburn, deep second-degree burns, whether superficial or deep, or superficial or deep third-degree burns, in addition to chemical burns that affect the skin.
+- It helps in treating wounds resulting from surgical operations, such as cosmetic surgical wounds. It helps in treating chronic wounds.
+- It is a moisturizer and nourisher for the skin.
+- It is used after laser operations or treating the face in any way with a laser.
+- It is used to restore the effects of a cesarean section.
+- It is used to treat ulcers that affect the feet resulting from diabetes.
+Made In South Korea</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>1</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>1</v>
+      </c>
+      <c r="N570" t="n">
+        <v>1</v>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>Paramedica, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P570" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q570" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/mibone.jpg</t>
+        </is>
+      </c>
+      <c r="R570" t="inlineStr"/>
+      <c r="S570" t="n">
+        <v>0</v>
+      </c>
+      <c r="T570" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U570" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V570" t="n">
+        <v>1</v>
+      </c>
+      <c r="W570" t="n">
+        <v>1</v>
+      </c>
+      <c r="X570" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y570" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z570" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA570" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB570" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC570" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>3570</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>joint c</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>1</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0</v>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Joint-C Cool is distinguished by its unique formula that is used to treat:
+- degenerative arthritis
+- osteoarthritis
+- edema of cartilage and joints
+- acute injuries
+Joint-C Cool contains the basic substance that nourishes the joints and cartilage (glucosamine), in addition to the basic substance responsible for returning joint synovial fluid to the inside of the joint or cartilage ( Hyaluronic acid)
+in addition to the magical analgesic effect that (ostrich fat oil) provides when applied to the site of the injury.
+Joint-C Cool has a cooling and analgesic effect for pain resulting from recent injury accompanied by heat and pain because it contains (menthol).
+Joint-C Cool is characterized by a gel texture that ensures higher absorption of the medicinal substance and thus obtains a fast effect.
+Made in South Korea</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>1</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>1</v>
+      </c>
+      <c r="N571" t="n">
+        <v>1</v>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>Paramedica, Joint Pain Treatment</t>
+        </is>
+      </c>
+      <c r="P571" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q571" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/joint-c.jpg</t>
+        </is>
+      </c>
+      <c r="R571" t="inlineStr"/>
+      <c r="S571" t="n">
+        <v>0</v>
+      </c>
+      <c r="T571" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U571" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V571" t="n">
+        <v>1</v>
+      </c>
+      <c r="W571" t="n">
+        <v>1</v>
+      </c>
+      <c r="X571" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y571" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z571" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA571" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB571" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC571" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Feromin</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>1</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Ferromin from Paramedica is distinguished by its unique composition, as it contains:
+- iron carbonyl
+- vitamin C
+- folic acid
+- vitamin B12
+- herbal extracts from nettle and yellow sorrel, which are a rich source of vitamins and minerals
+in addition to having laxative properties to prevent side effects that may be caused by taking iron.
+Feromin is a comprehensive treatment for iron deficiency and anemia</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>1</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M572" t="n">
+        <v>1</v>
+      </c>
+      <c r="N572" t="n">
+        <v>1</v>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>Paramedica, Amino Acids, Vitamins and Minerals</t>
+        </is>
+      </c>
+      <c r="P572" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q572" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/feromin.jpg</t>
+        </is>
+      </c>
+      <c r="R572" t="inlineStr"/>
+      <c r="S572" t="n">
+        <v>0</v>
+      </c>
+      <c r="T572" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U572" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V572" t="n">
+        <v>1</v>
+      </c>
+      <c r="W572" t="n">
+        <v>1</v>
+      </c>
+      <c r="X572" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y572" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z572" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA572" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB572" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC572" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>3572</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Dr Muscle Relaxing</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>1</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>- The fastest muscle relaxant to relieve pain and muscle spasms.
+- Gel texture for faster absorption and effect.
+Size 113g.
+Made in South Korea.</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>1</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>1</v>
+      </c>
+      <c r="N573" t="n">
+        <v>1</v>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>Paramedica, Muscle Relaxants</t>
+        </is>
+      </c>
+      <c r="P573" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q573" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/dr-muscle-relaxing.jpg</t>
+        </is>
+      </c>
+      <c r="R573" t="inlineStr"/>
+      <c r="S573" t="n">
+        <v>0</v>
+      </c>
+      <c r="T573" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U573" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V573" t="n">
+        <v>1</v>
+      </c>
+      <c r="W573" t="n">
+        <v>1</v>
+      </c>
+      <c r="X573" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y573" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z573" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA573" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB573" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC573" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>3573</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Calinol</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>1</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0</v>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>Calinol is prescribed for people who either have a bone disease called renal osteodystrophy or because they have thinning of the bones after menopause (osteoporosis).
+Either way, calinol will help your body absorb the minerals it needs and this will help strengthen your bones.
+Vitamin D helps regulate the amount of minerals in the body, called calcium and phosphate. All three of these substances are important for maintaining healthy and strong bones.
+There are several types of vitamin D available, but most others need to be “activated” by the kidneys.
+(Callinol) Calcitriol is a form of vitamin D that does not require this activation process, and therefore it is generally beneficial for people who need to strengthen bones and especially for those who also have liver and kidney problems.</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>1</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>1</v>
+      </c>
+      <c r="N574" t="n">
+        <v>1</v>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>Paramedica, Osteoporosis Treatment</t>
+        </is>
+      </c>
+      <c r="P574" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q574" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/calinol.jpg</t>
+        </is>
+      </c>
+      <c r="R574" t="inlineStr"/>
+      <c r="S574" t="n">
+        <v>0</v>
+      </c>
+      <c r="T574" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U574" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V574" t="n">
+        <v>1</v>
+      </c>
+      <c r="W574" t="n">
+        <v>1</v>
+      </c>
+      <c r="X574" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y574" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z574" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA574" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB574" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC574" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Arbutex</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>1</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0</v>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>Arbutex is characterized by a distinctive formula that gives your skin complete care.
+It contains:
+- the safe natural arbutin Hydroquinone-BD- glucopyranoside, which is the natural derivative of hydroquinone and extracted from the leaves of the bearberry plant.
+- Vitamin (C) in its dissolved form in the most stable form of magnesium ascorbyl phosphate and orange-colored granules.
+- Extract of natural oils from aloe vera and chamomile. And avocado.
+What are the reasons for using Arbutex:
+- natural whitening cream
+- It removes spots resulting from exposure to sunlight, pregnancy, taking birth control pills, or aging (senile melasma).
+- It is an anti-wrinkle agent that gives the skin a uniform appearance, superior freshness, and eternal youth.</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>1</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M575" t="n">
+        <v>1</v>
+      </c>
+      <c r="N575" t="n">
+        <v>1</v>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>Paramedica, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P575" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q575" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/05/arbutex.jpg</t>
+        </is>
+      </c>
+      <c r="R575" t="inlineStr"/>
+      <c r="S575" t="n">
+        <v>0</v>
+      </c>
+      <c r="T575" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U575" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V575" t="n">
+        <v>1</v>
+      </c>
+      <c r="W575" t="n">
+        <v>1</v>
+      </c>
+      <c r="X575" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y575" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z575" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA575" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB575" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC575" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>3575</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Anti-hair Fall Shampoo Dry</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>1</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>Honey Care anti-hair loss shampoo, with its special formula for dry hair, prevents hair loss and dry scalp and gives the hair the appearance of fullness. It strengthens the hair, gives it moisture and shine, and restores its vitality because it contains wheat protein, almond oil, and argan oil.
+It is rich in nutrients, antioxidants, caffeine, and vitamins (ACE-B12-B9).It reduces Hair breakage and breakage because it contains argan oil and grape seed oil treats dandruff and scalp inflammation and reduces redness and itching because it contains extracts of chamomile, aloe vera, ginkgo biloba and grape seed oil.</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>1</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>1</v>
+      </c>
+      <c r="N576" t="n">
+        <v>1</v>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>HoneyCare, Hair Care</t>
+        </is>
+      </c>
+      <c r="P576" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q576" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/anti-hair-fall-shampoo-dry.jpg</t>
+        </is>
+      </c>
+      <c r="R576" t="inlineStr"/>
+      <c r="S576" t="n">
+        <v>0</v>
+      </c>
+      <c r="T576" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U576" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V576" t="n">
+        <v>1</v>
+      </c>
+      <c r="W576" t="n">
+        <v>1</v>
+      </c>
+      <c r="X576" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y576" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z576" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA576" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB576" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC576" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>3576</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Anti-hair Fall Shampoo Oily</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>1</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>honey care shampoo
+Anti-hair loss shampoo for oily hair, rich in nutrients, antioxidants, caffeine and vitamins (ACE-B12-B9). It nourishes the hair follicles and improves blood circulation to the scalp because it contains horsetail and ginkgo biloba extracts. It reduces hair breakage and breakage because it contains argan oil and grape seed oil and treats dandruff and inflammation. The scalp has antimicrobial properties because it contains extracts of chamomile, aloe vera and grape seed oil.
+It deeply cleanses oily hair, removes excess irritation, and does not cause pain because it contains extracts of aloe vera and chamomile.</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>1</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>1</v>
+      </c>
+      <c r="N577" t="n">
+        <v>1</v>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>HoneyCare, Hair Care</t>
+        </is>
+      </c>
+      <c r="P577" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q577" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Anti-hair-fall-shampoo-oily.jpg</t>
+        </is>
+      </c>
+      <c r="R577" t="inlineStr"/>
+      <c r="S577" t="n">
+        <v>0</v>
+      </c>
+      <c r="T577" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U577" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V577" t="n">
+        <v>1</v>
+      </c>
+      <c r="W577" t="n">
+        <v>1</v>
+      </c>
+      <c r="X577" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y577" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z577" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA577" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB577" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC577" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>3577</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Skin Whitening Cream</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>1</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0</v>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>Skin lightening cream with arbutin and lactic acid from Honey Care is one of the best creams to lighten the skin, unify its color, and moisturize it from dryness.
+It works to remove dark skin pigmentation, melasma, and freckles. It has a great ability to lighten the skin and unify its color with its distinctive formula.
+Arbutin disrupts stages of the melanin pigment synthesis process. Lactic acid removes the damaged surface layer of the skin, stimulating the process of producing collagen fibers and building a new layer of skin cells. Lactic acid reduces the appearance of pigmentation resulting from sun exposure.
+Lightening cream with arbutin and lactic acid is suitable for all skin types, including sensitive skin.
+Apply in the evening</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>1</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" t="n">
+        <v>1</v>
+      </c>
+      <c r="N578" t="n">
+        <v>1</v>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>HoneyCare, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P578" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q578" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/skin-whitening-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R578" t="inlineStr"/>
+      <c r="S578" t="n">
+        <v>0</v>
+      </c>
+      <c r="T578" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U578" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V578" t="n">
+        <v>1</v>
+      </c>
+      <c r="W578" t="n">
+        <v>1</v>
+      </c>
+      <c r="X578" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y578" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z578" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA578" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB578" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC578" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Sunscreen Beige</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>1</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0</v>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>Sunscreen from HoneyCare
+is available in beige (light and dark) and transparent. It is specially designed to give the best natural protection throughout the day from harmful rays, which result in many skin problems.</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>1</v>
+      </c>
+      <c r="K579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M579" t="n">
+        <v>1</v>
+      </c>
+      <c r="N579" t="n">
+        <v>1</v>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>HoneyCare, Sunscreen Creams</t>
+        </is>
+      </c>
+      <c r="P579" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q579" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Sunscreen-beige.jpg</t>
+        </is>
+      </c>
+      <c r="R579" t="inlineStr"/>
+      <c r="S579" t="n">
+        <v>0</v>
+      </c>
+      <c r="T579" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U579" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V579" t="n">
+        <v>1</v>
+      </c>
+      <c r="W579" t="n">
+        <v>1</v>
+      </c>
+      <c r="X579" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y579" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z579" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA579" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB579" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC579" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>3579</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Nourishing Cream Dry</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>1</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0</v>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>Nourishing cream for dry skin.
+The skin must be constantly moisturized because dry skin needs daily moisturizing to treat dryness. Therefore, it is recommended to use the nourishing cream for dry skin from Honey Care.
+Gloves must be worn when using cleaning materials and chemicals. Wash the skin with a gentle lotion and avoid deodorizing soap. You must shower regularly.</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>1</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>1</v>
+      </c>
+      <c r="N580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>HoneyCare, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P580" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q580" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/nourishing-cream-dry.jpg</t>
+        </is>
+      </c>
+      <c r="R580" t="inlineStr"/>
+      <c r="S580" t="n">
+        <v>0</v>
+      </c>
+      <c r="T580" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U580" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V580" t="n">
+        <v>1</v>
+      </c>
+      <c r="W580" t="n">
+        <v>1</v>
+      </c>
+      <c r="X580" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y580" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z580" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA580" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB580" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC580" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>3580</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Make-up Removing Cream</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>1</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0</v>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>Make-up removing cream
+(E) with aloe vera extract and vitamins helps get rid of traces of face, eye and lip make-up and gives softness and freshness to the skin.</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>1</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>1</v>
+      </c>
+      <c r="N581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>HoneyCare, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P581" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q581" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Make-up-removing-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R581" t="inlineStr"/>
+      <c r="S581" t="n">
+        <v>0</v>
+      </c>
+      <c r="T581" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U581" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V581" t="n">
+        <v>1</v>
+      </c>
+      <c r="W581" t="n">
+        <v>1</v>
+      </c>
+      <c r="X581" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y581" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z581" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA581" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB581" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC581" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>3581</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>G6 Cream</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>1</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>honey care G6
+contains glycolic acid 6%, which is the natural substance alpha hydroxyl acid that is found in fruits, milk and sugar cane.
+It exfoliates the layer of dead cells and stimulates the formation of a new layer of cells. It also enhances the production of collagen, elastin and hyaluronic acid in the skin and is useful in the treatment and prevention of acne and removing scars.
+It helps in preventing the appearance of wrinkles, treats pigmentation and dark spots, and contributes to lightening the skin. Apply in the evening while avoiding exposure to the sun.</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>1</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>1</v>
+      </c>
+      <c r="N582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>HoneyCare, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P582" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q582" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/G6-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R582" t="inlineStr"/>
+      <c r="S582" t="n">
+        <v>0</v>
+      </c>
+      <c r="T582" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U582" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V582" t="n">
+        <v>1</v>
+      </c>
+      <c r="W582" t="n">
+        <v>1</v>
+      </c>
+      <c r="X582" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y582" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z582" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA582" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB582" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC582" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>3582</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>bb Cream</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>1</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0</v>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>BB cream,
+sunscreen + foundation
+for smooth, radiant skin with a uniform color</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>1</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>1</v>
+      </c>
+      <c r="N583" t="n">
+        <v>1</v>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>HoneyCare, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P583" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q583" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/bb-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R583" t="inlineStr"/>
+      <c r="S583" t="n">
+        <v>0</v>
+      </c>
+      <c r="T583" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U583" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V583" t="n">
+        <v>1</v>
+      </c>
+      <c r="W583" t="n">
+        <v>1</v>
+      </c>
+      <c r="X583" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y583" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z583" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA583" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB583" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC583" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>3583</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Acne Cream</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>1</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0</v>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>ACNE cream for acne is characterized by a combination of lactic acid and benzalkonium chloride.
+It works to eliminate acne-causing bacteria,
+removes blackheads, cleans pores, and gives the skin a clear look.</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>1</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>1</v>
+      </c>
+      <c r="N584" t="n">
+        <v>1</v>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>HoneyCare, Anti Acne</t>
+        </is>
+      </c>
+      <c r="P584" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q584" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/acne-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R584" t="inlineStr"/>
+      <c r="S584" t="n">
+        <v>0</v>
+      </c>
+      <c r="T584" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U584" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V584" t="n">
+        <v>1</v>
+      </c>
+      <c r="W584" t="n">
+        <v>1</v>
+      </c>
+      <c r="X584" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y584" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z584" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA584" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB584" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC584" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>3584</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>3 Active Cream</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>1</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>3-Active Cream is a distinctive combination of collagen, aloe vera gel, almond oil, wheat germ oil, green tea and chamomile extracts, and vitamins necessary for the skin.
+Anti-wrinkle, enhanced with collagen,
+moisturizing and nourishing for all skin types,
+unifies skin tone and helps purify it, suitable for all skin types, used daily in the evening before bed.</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>1</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>1</v>
+      </c>
+      <c r="N585" t="n">
+        <v>1</v>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>HoneyCare, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P585" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q585" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/3-active-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R585" t="inlineStr"/>
+      <c r="S585" t="n">
+        <v>0</v>
+      </c>
+      <c r="T585" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U585" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V585" t="n">
+        <v>1</v>
+      </c>
+      <c r="W585" t="n">
+        <v>1</v>
+      </c>
+      <c r="X585" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y585" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z585" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA585" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB585" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC585" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>3585</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Lino Sun Cream</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>1</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Lino Sun cream has a special formula that provides intense protection for the skin from UVB &amp; UVA solar rays, as it protects the skin from sunburn and skin pigmentation. LINO Sun cream contains components that absorb UVA &amp; UVB rays such as octyl methoxy cinnamate – octocrylene – avobenzone octyl salicylate – Oxybenzone contains elements that scatter and reflect rays, such as titanium oxide. These ingredients work to protect the skin from harmful solar rays.
+Available in 60 – 90 with a bleach or beige base
+Package: 50 ml</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>1</v>
+      </c>
+      <c r="N586" t="n">
+        <v>1</v>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>Linover, Sunscreen Creams</t>
+        </is>
+      </c>
+      <c r="P586" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q586" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lino-sun-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R586" t="inlineStr"/>
+      <c r="S586" t="n">
+        <v>0</v>
+      </c>
+      <c r="T586" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U586" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V586" t="n">
+        <v>1</v>
+      </c>
+      <c r="W586" t="n">
+        <v>1</v>
+      </c>
+      <c r="X586" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y586" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z586" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA586" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB586" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC586" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Lyco Sun Anti-Age</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>1</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr"/>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" t="n">
+        <v>1</v>
+      </c>
+      <c r="N587" t="n">
+        <v>1</v>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>Linover, Sunscreen Creams</t>
+        </is>
+      </c>
+      <c r="P587" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q587" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-sun-anti-age.jpg</t>
+        </is>
+      </c>
+      <c r="R587" t="inlineStr"/>
+      <c r="S587" t="n">
+        <v>0</v>
+      </c>
+      <c r="T587" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U587" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V587" t="n">
+        <v>1</v>
+      </c>
+      <c r="W587" t="n">
+        <v>1</v>
+      </c>
+      <c r="X587" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y587" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z587" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA587" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB587" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC587" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Lyco Sun Cream</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>1</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr"/>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>1</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>1</v>
+      </c>
+      <c r="N588" t="n">
+        <v>1</v>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>Linover, Sunscreen Creams</t>
+        </is>
+      </c>
+      <c r="P588" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-sun-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr"/>
+      <c r="S588" t="n">
+        <v>0</v>
+      </c>
+      <c r="T588" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U588" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V588" t="n">
+        <v>1</v>
+      </c>
+      <c r="W588" t="n">
+        <v>1</v>
+      </c>
+      <c r="X588" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y588" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z588" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA588" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB588" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC588" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>3588</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Lyco X</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>1</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>1</v>
+      </c>
+      <c r="N589" t="n">
+        <v>1</v>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>Linover, Hair Care</t>
+        </is>
+      </c>
+      <c r="P589" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-x.jpg</t>
+        </is>
+      </c>
+      <c r="R589" t="inlineStr"/>
+      <c r="S589" t="n">
+        <v>0</v>
+      </c>
+      <c r="T589" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U589" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V589" t="n">
+        <v>1</v>
+      </c>
+      <c r="W589" t="n">
+        <v>1</v>
+      </c>
+      <c r="X589" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y589" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z589" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA589" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB589" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC589" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>3589</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Lyco Silicon Cream</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>1</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>Silicone treatments, such as Laico Silicone Cream, are usually used to prevent the formation of scars and improve their appearance. It is a scientifically developed type of silicone materials, antioxidants, and anti-inflammatory agents. It has an American distinction and is distinguished from others in that the active substance is dimethicone and cyclomethicone, which are natural silicone materials that work to stimulate the growth of natural tissue and have Its large molecular size works to close the wound pores, protecting the surface of scars and wounds from external factors such as bacteria that increase the secretion of collagen and modifying the cell structure by breaking down excess collagen, which has an assisting role in flattening the scar, while the rest of the compositions are based on restoration and restoring the natural color of the skin.</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>1</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M590" t="n">
+        <v>1</v>
+      </c>
+      <c r="N590" t="n">
+        <v>1</v>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>Linover, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P590" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-silicon-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R590" t="inlineStr"/>
+      <c r="S590" t="n">
+        <v>0</v>
+      </c>
+      <c r="T590" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U590" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V590" t="n">
+        <v>1</v>
+      </c>
+      <c r="W590" t="n">
+        <v>1</v>
+      </c>
+      <c r="X590" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y590" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z590" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA590" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB590" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC590" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>3590</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Lyco Septic</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>1</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>Lyco Septic cream is distinguished by its powerful combination of active ingredients that are antiseptic and accelerate wound repair, starting with
+- alpha bisabolol, which is an extract from the volatile oil of German chamomile. It improves the skin absorption of the cream and has skin-healing, anti-irritation, anti-inflammatory and anti-microbial properties
+- tree oil Australian tea containing tryptene 4, which is characterized by antibacterial, antiviral, and antiseptic properties and is considered an antioxidant. It strengthens the body’s immune system. It is recommended for ulcers, abscesses, and wounds
+- Aloe vera gel, which is effectively absorbed by the skin, is used as a topical pain reliever. It is rich in zinc and vitamin C. It helps It helps heal wounds, ulcers, and burns, and soothes tissues. It works as a moisturizer and softener for the skin.
+Therefore, Lyco Septic cream is used:
+immediately after wounds, surgical wounds of all kinds, abrasions, ulcers, scratches, and on areas of burns and areas of tissue loss, as it forms a layer of protection from external influences, while the rest of its components accelerate the healing of wounds.</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>1</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M591" t="n">
+        <v>1</v>
+      </c>
+      <c r="N591" t="n">
+        <v>1</v>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>Linover, Antiseptic Cream</t>
+        </is>
+      </c>
+      <c r="P591" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-septic.jpg</t>
+        </is>
+      </c>
+      <c r="R591" t="inlineStr"/>
+      <c r="S591" t="n">
+        <v>0</v>
+      </c>
+      <c r="T591" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U591" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V591" t="n">
+        <v>1</v>
+      </c>
+      <c r="W591" t="n">
+        <v>1</v>
+      </c>
+      <c r="X591" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y591" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z591" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA591" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB591" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC591" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>3591</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Lyco-m Cream</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>1</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>It is recommended to quickly relieve spasms using topical creams, the best of which is Lyco-M Cream, which contains Arnica Montana extract, menthol, olive oil, and black seed oil, which has a muscle relaxant and pain-relieving effect due to its effect on calcium channels in the nerves. It is used for all cases of muscle tension and to relieve spasms. In cases of neck and back stiffness, it is preferable to use it in various massage sessions, as it begins to take effect after applying it to the site of muscle tension within 7-10 minutes.</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>1</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M592" t="n">
+        <v>1</v>
+      </c>
+      <c r="N592" t="n">
+        <v>1</v>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>Linover, Muscle Relaxants</t>
+        </is>
+      </c>
+      <c r="P592" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-m-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R592" t="inlineStr"/>
+      <c r="S592" t="n">
+        <v>0</v>
+      </c>
+      <c r="T592" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U592" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V592" t="n">
+        <v>1</v>
+      </c>
+      <c r="W592" t="n">
+        <v>1</v>
+      </c>
+      <c r="X592" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y592" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z592" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA592" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB592" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC592" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>3592</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Lyco Dry</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>1</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>Antiperspirant,
+deodorant, lightener for the underarm area.
+It contains 10% hydrochloride, which acts as an antiperspirant. It also contains licorice extract, which helps inhibit the formation of melanin and thus works to lighten the skin tone and give it luster and vitality.
+It also contains lemon oil and its extract, as it is an antiseptic and sterilizer. At the same time, it works to lighten the skin and remove the effects of darkening under the armpits. It also contains rosemary oil, which works as a substance that helps suppress the bacteria responsible for the appearance of unpleasant odors under the armpits and in the feet.</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>1</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" t="n">
+        <v>1</v>
+      </c>
+      <c r="N593" t="n">
+        <v>1</v>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>Linover, Deodorant</t>
+        </is>
+      </c>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lyco-dry.jpg</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr"/>
+      <c r="S593" t="n">
+        <v>0</v>
+      </c>
+      <c r="T593" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U593" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V593" t="n">
+        <v>1</v>
+      </c>
+      <c r="W593" t="n">
+        <v>1</v>
+      </c>
+      <c r="X593" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y593" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z593" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA593" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB593" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC593" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Linoconazol+z Shampoo</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>1</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>Linoconazole+Z shampoo contains ketoconazole, with its antifungal effect, and zinc perthion, with its anti-dandruff effect, in addition to aloe vera, as an emollient and nourishing hair, and therefore linoconazole.</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>1</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>1</v>
+      </c>
+      <c r="N594" t="n">
+        <v>1</v>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>Linover, Hair Care</t>
+        </is>
+      </c>
+      <c r="P594" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/linoconazol-z-shampoo.jpg</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr"/>
+      <c r="S594" t="n">
+        <v>0</v>
+      </c>
+      <c r="T594" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U594" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V594" t="n">
+        <v>1</v>
+      </c>
+      <c r="W594" t="n">
+        <v>1</v>
+      </c>
+      <c r="X594" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y594" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z594" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA594" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB594" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC594" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>3594</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Linolips Cream</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>1</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>Linoleps contains a unique and developed group of natural ingredients (alantoin – lavender flower extract – chamomile extract – panthenol – sweet almond oil). This formula helps nourish the lips and provide comprehensive protection for them from dryness and undesirable cracks resulting from dry skin.
+Package: 15 ml</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>1</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" t="n">
+        <v>1</v>
+      </c>
+      <c r="N595" t="n">
+        <v>1</v>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>Linover, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P595" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/linolips-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr"/>
+      <c r="S595" t="n">
+        <v>0</v>
+      </c>
+      <c r="T595" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U595" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V595" t="n">
+        <v>1</v>
+      </c>
+      <c r="W595" t="n">
+        <v>1</v>
+      </c>
+      <c r="X595" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y595" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z595" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA595" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB595" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC595" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>3595</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Lino Glucamin Cream</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>1</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>Linoglucamine works to achieve quick relief for the joints and has soothing and pain-relieving effects. If it is used on a regular daily basis for a period of not less than 8 weeks, it contributes to building cartilage and thus contributes to reducing bone friction in cases of erosion and arthritis and reduces the patient’s need for To take analgesics orally, Linoglucamine also contributes to reducing the erosion of the synovial fluid that facilitates the sliding of bones in the joint.
+Indications for using Linoglucamine Cream:
+- Reducing the pain associated with osteoarthritis, arthritis, and the pain of joint stiffness.
+- Reducing the sensation of heat and swelling in the joints and gouty joint inflammation.
+- Inflammation of the neck vertebrae and spinal infections.
+- Lower back pain.
+- Osteoarthritis/arthritis of the knee joints.
+- Treating osteoarthritis pain in the elderly</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>1</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>1</v>
+      </c>
+      <c r="N596" t="n">
+        <v>1</v>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>Linover, Joint Pain Treatment</t>
+        </is>
+      </c>
+      <c r="P596" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lino-glucamin-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R596" t="inlineStr"/>
+      <c r="S596" t="n">
+        <v>0</v>
+      </c>
+      <c r="T596" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U596" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V596" t="n">
+        <v>1</v>
+      </c>
+      <c r="W596" t="n">
+        <v>1</v>
+      </c>
+      <c r="X596" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y596" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z596" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA596" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB596" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC596" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>3596</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Lino Conazol Shampoo</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>1</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Climbazole, the main component of linoconazole shampoo, plays a very important role as an antifungal, as it works to inhibit the enzyme cytochrome, which mediates the conversion of lanosterol into ergosterol, which is the main sterol in fungal cell membranes, which leads to sabotaging the function of the membrane and increasing its permeability. It also contains salicylic acid, which works to dissolve the stratum corneum. In cases of hyperkeratosis, including corns, psoriasis and pityriasis versicolor, it is recommended, especially in cases of hypersecretion of sebum and pityriasis versicolor. It also helps in alleviating the symptoms of psoriasis and in cases of stubborn dandruff and its types. The credit for this is due to the effectiveness of its components in combating skin fungi and under the skin. Skin and nails</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>1</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>1</v>
+      </c>
+      <c r="N597" t="n">
+        <v>1</v>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>Linover, Hair Care</t>
+        </is>
+      </c>
+      <c r="P597" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/lino-conazol-shampoo.jpg</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr"/>
+      <c r="S597" t="n">
+        <v>0</v>
+      </c>
+      <c r="T597" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U597" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V597" t="n">
+        <v>1</v>
+      </c>
+      <c r="W597" t="n">
+        <v>1</v>
+      </c>
+      <c r="X597" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y597" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z597" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA597" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB597" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC597" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>3597</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Crystal Line Whitening Cream</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>1</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>1</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M598" t="n">
+        <v>1</v>
+      </c>
+      <c r="N598" t="n">
+        <v>1</v>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>Crystal Line, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P598" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-whitening-cream-768x552.jpg</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr"/>
+      <c r="S598" t="n">
+        <v>0</v>
+      </c>
+      <c r="T598" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U598" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V598" t="n">
+        <v>1</v>
+      </c>
+      <c r="W598" t="n">
+        <v>1</v>
+      </c>
+      <c r="X598" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y598" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z598" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA598" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB598" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC598" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>3598</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Crystal Line Sun Protect UVA</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>1</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>1</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M599" t="n">
+        <v>1</v>
+      </c>
+      <c r="N599" t="n">
+        <v>1</v>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>Crystal Line, Sunscreen Creams</t>
+        </is>
+      </c>
+      <c r="P599" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-sun-protect-UVA-768x602.jpg</t>
+        </is>
+      </c>
+      <c r="R599" t="inlineStr"/>
+      <c r="S599" t="n">
+        <v>0</v>
+      </c>
+      <c r="T599" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U599" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V599" t="n">
+        <v>1</v>
+      </c>
+      <c r="W599" t="n">
+        <v>1</v>
+      </c>
+      <c r="X599" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y599" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z599" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA599" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB599" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC599" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>3599</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Crystal Line Collagen Cream</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>1</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0</v>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>1</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M600" t="n">
+        <v>1</v>
+      </c>
+      <c r="N600" t="n">
+        <v>1</v>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>Crystal Line, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P600" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-collagen-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R600" t="inlineStr"/>
+      <c r="S600" t="n">
+        <v>0</v>
+      </c>
+      <c r="T600" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U600" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V600" t="n">
+        <v>1</v>
+      </c>
+      <c r="W600" t="n">
+        <v>1</v>
+      </c>
+      <c r="X600" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y600" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z600" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA600" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB600" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC600" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>3600</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Crystal Line Collagen Cream Tropical Fruit</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>1</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>1</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M601" t="n">
+        <v>1</v>
+      </c>
+      <c r="N601" t="n">
+        <v>1</v>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>Crystal Line, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P601" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-collagen-cream-tropical-fruit-700x700.jpg</t>
+        </is>
+      </c>
+      <c r="R601" t="inlineStr"/>
+      <c r="S601" t="n">
+        <v>0</v>
+      </c>
+      <c r="T601" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U601" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V601" t="n">
+        <v>1</v>
+      </c>
+      <c r="W601" t="n">
+        <v>1</v>
+      </c>
+      <c r="X601" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y601" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z601" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA601" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB601" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC601" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Crystal Line Nourishing Face Cream</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>1</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0</v>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>1</v>
+      </c>
+      <c r="K602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" t="n">
+        <v>1</v>
+      </c>
+      <c r="N602" t="n">
+        <v>1</v>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>Crystal Line, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P602" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q602" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-nourishing-face-cream-768x411.jpg</t>
+        </is>
+      </c>
+      <c r="R602" t="inlineStr"/>
+      <c r="S602" t="n">
+        <v>0</v>
+      </c>
+      <c r="T602" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U602" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V602" t="n">
+        <v>1</v>
+      </c>
+      <c r="W602" t="n">
+        <v>1</v>
+      </c>
+      <c r="X602" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y602" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z602" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA602" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB602" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC602" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>3602</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Crystal Line Protective Day Cream</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>1</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0</v>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>1</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" t="n">
+        <v>1</v>
+      </c>
+      <c r="N603" t="n">
+        <v>1</v>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>Crystal Line, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P603" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-protective-day-cream.jpg</t>
+        </is>
+      </c>
+      <c r="R603" t="inlineStr"/>
+      <c r="S603" t="n">
+        <v>0</v>
+      </c>
+      <c r="T603" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U603" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V603" t="n">
+        <v>1</v>
+      </c>
+      <c r="W603" t="n">
+        <v>1</v>
+      </c>
+      <c r="X603" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y603" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z603" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA603" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB603" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC603" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>3603</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Crystal Line Nourishing Night Cream</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>1</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>taxable</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>1</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>1</v>
+      </c>
+      <c r="N604" t="n">
+        <v>1</v>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>Crystal Line, Skin Care Creams</t>
+        </is>
+      </c>
+      <c r="P604" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>https://almousoaa.com/wp-content/uploads/2024/04/Crystal-line-nourising-night-cream-768x518.jpg</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr"/>
+      <c r="S604" t="n">
+        <v>0</v>
+      </c>
+      <c r="T604" t="inlineStr">
+        <is>
+          <t>Dosage form</t>
+        </is>
+      </c>
+      <c r="U604" t="inlineStr">
+        <is>
+          <t>Attribute 1 value(s)</t>
+        </is>
+      </c>
+      <c r="V604" t="n">
+        <v>1</v>
+      </c>
+      <c r="W604" t="n">
+        <v>1</v>
+      </c>
+      <c r="X604" t="inlineStr">
+        <is>
+          <t>Attribute 1 default</t>
+        </is>
+      </c>
+      <c r="Y604" t="inlineStr">
+        <is>
+          <t>Dosage Strength</t>
+        </is>
+      </c>
+      <c r="Z604" t="inlineStr">
+        <is>
+          <t>Attribute 2 value(s)</t>
+        </is>
+      </c>
+      <c r="AA604" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB604" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC604" t="inlineStr">
+        <is>
+          <t>Attribute 2 default</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
